--- a/quanlythuvien/data/List_TaiLieu.xlsx
+++ b/quanlythuvien/data/List_TaiLieu.xlsx
@@ -8,19 +8,31 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Desktop\New folder (2)\mini-library-manager\quanlythuvien\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0012F74D-C00A-4B2A-9B79-DD505672B1BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E78557CA-D7E3-4527-B3F3-0ABC9416B6A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1835" uniqueCount="644">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1805" uniqueCount="614">
   <si>
     <t>The loai</t>
   </si>
@@ -394,9 +406,6 @@
     <t>30/08/1996 02:22:09</t>
   </si>
   <si>
-    <t>25/05/2019 02:46:46</t>
-  </si>
-  <si>
     <t>An Phuong Bao Han</t>
   </si>
   <si>
@@ -421,9 +430,6 @@
     <t>11/05/1994 16:41:32</t>
   </si>
   <si>
-    <t>29/05/2015 00:41:34</t>
-  </si>
-  <si>
     <t>Nguyen Thuy Trang</t>
   </si>
   <si>
@@ -490,9 +496,6 @@
     <t>15/10/1981 19:09:11</t>
   </si>
   <si>
-    <t>02/05/2014 16:16:49</t>
-  </si>
-  <si>
     <t>Nguyen Khai Tam</t>
   </si>
   <si>
@@ -529,9 +532,6 @@
     <t>05/07/1988 00:40:35</t>
   </si>
   <si>
-    <t>29/07/2011 07:21:29</t>
-  </si>
-  <si>
     <t>05/07/2014 19:42:32</t>
   </si>
   <si>
@@ -607,9 +607,6 @@
     <t>18/12/1992 19:08:58</t>
   </si>
   <si>
-    <t>09/12/2016 19:38:20</t>
-  </si>
-  <si>
     <t>21/10/2013 01:35:57</t>
   </si>
   <si>
@@ -625,18 +622,12 @@
     <t>03/06/1999 14:03:16</t>
   </si>
   <si>
-    <t>22/04/2013 06:41:25</t>
-  </si>
-  <si>
     <t>Bao Lao Dong tuan 36</t>
   </si>
   <si>
     <t>22/08/1982 20:19:55</t>
   </si>
   <si>
-    <t>26/11/2017 17:38:11</t>
-  </si>
-  <si>
     <t>22/09/2012 14:31:08</t>
   </si>
   <si>
@@ -685,9 +676,6 @@
     <t>06/09/1983 05:04:42</t>
   </si>
   <si>
-    <t>23/08/2012 03:28:53</t>
-  </si>
-  <si>
     <t>An Son Tung</t>
   </si>
   <si>
@@ -742,9 +730,6 @@
     <t>28/11/1990 08:56:38</t>
   </si>
   <si>
-    <t>19/09/2014 11:54:59</t>
-  </si>
-  <si>
     <t>20/12/2015 20:59:01</t>
   </si>
   <si>
@@ -796,9 +781,6 @@
     <t>21/11/1989 16:46:41</t>
   </si>
   <si>
-    <t>19/09/2017 06:05:28</t>
-  </si>
-  <si>
     <t>29/12/2018 05:06:58</t>
   </si>
   <si>
@@ -826,9 +808,6 @@
     <t>23/05/1983 18:21:01</t>
   </si>
   <si>
-    <t>12/06/2018 15:42:35</t>
-  </si>
-  <si>
     <t>Nguyen Truong An</t>
   </si>
   <si>
@@ -901,9 +880,6 @@
     <t>23/08/1999 02:21:51</t>
   </si>
   <si>
-    <t>07/03/2013 16:58:47</t>
-  </si>
-  <si>
     <t>04/07/2016 01:44:15</t>
   </si>
   <si>
@@ -934,9 +910,6 @@
     <t>29/11/1984 07:44:43</t>
   </si>
   <si>
-    <t>20/07/2014 06:19:06</t>
-  </si>
-  <si>
     <t>14/11/2010 21:56:26</t>
   </si>
   <si>
@@ -973,9 +946,6 @@
     <t>21/09/1982 23:35:52</t>
   </si>
   <si>
-    <t>23/11/2015 00:04:49</t>
-  </si>
-  <si>
     <t>22/06/2020 01:31:34</t>
   </si>
   <si>
@@ -1003,9 +973,6 @@
     <t>01/06/1997 00:46:46</t>
   </si>
   <si>
-    <t>12/07/2018 07:42:01</t>
-  </si>
-  <si>
     <t>16/09/2013 04:38:14</t>
   </si>
   <si>
@@ -1036,9 +1003,6 @@
     <t>03/05/1987 23:26:38</t>
   </si>
   <si>
-    <t>29/04/2020 02:10:39</t>
-  </si>
-  <si>
     <t>20/12/2020 02:46:54</t>
   </si>
   <si>
@@ -1069,9 +1033,6 @@
     <t>16/12/1993 19:10:57</t>
   </si>
   <si>
-    <t>25/08/2020 10:17:52</t>
-  </si>
-  <si>
     <t>26/01/2021 21:11:06</t>
   </si>
   <si>
@@ -1180,9 +1141,6 @@
     <t>10/08/1993 01:19:39</t>
   </si>
   <si>
-    <t>21/10/2018 07:27:26</t>
-  </si>
-  <si>
     <t>18/11/2016 10:23:51</t>
   </si>
   <si>
@@ -1219,9 +1177,6 @@
     <t>20/10/1999 07:13:29</t>
   </si>
   <si>
-    <t>02/01/2016 13:16:04</t>
-  </si>
-  <si>
     <t>10/06/2019 20:53:19</t>
   </si>
   <si>
@@ -1240,9 +1195,6 @@
     <t>24/08/1992 01:14:28</t>
   </si>
   <si>
-    <t>16/12/2014 00:52:52</t>
-  </si>
-  <si>
     <t>01/12/2013 00:44:04</t>
   </si>
   <si>
@@ -1279,9 +1231,6 @@
     <t>24/04/1999 11:52:18</t>
   </si>
   <si>
-    <t>10/11/2011 06:42:24</t>
-  </si>
-  <si>
     <t>21/06/2014 22:32:59</t>
   </si>
   <si>
@@ -1303,9 +1252,6 @@
     <t>14/02/1997 07:20:55</t>
   </si>
   <si>
-    <t>21/04/2020 05:08:03</t>
-  </si>
-  <si>
     <t>07/10/2010 00:21:14</t>
   </si>
   <si>
@@ -1324,27 +1270,18 @@
     <t>10/12/1984 21:29:06</t>
   </si>
   <si>
-    <t>19/08/2020 13:08:03</t>
-  </si>
-  <si>
     <t>Bao Lao Dong tuan 12</t>
   </si>
   <si>
     <t>15/03/1989 14:45:15</t>
   </si>
   <si>
-    <t>30/06/2017 19:02:57</t>
-  </si>
-  <si>
     <t>Bao Lao Dong tuan 24</t>
   </si>
   <si>
     <t>21/04/1997 20:15:38</t>
   </si>
   <si>
-    <t>27/05/2013 17:20:23</t>
-  </si>
-  <si>
     <t>29/08/2013 14:18:13</t>
   </si>
   <si>
@@ -1408,9 +1345,6 @@
     <t>12/10/1997 12:21:51</t>
   </si>
   <si>
-    <t>19/07/2012 02:10:00</t>
-  </si>
-  <si>
     <t>30/05/2017 08:25:51</t>
   </si>
   <si>
@@ -1447,9 +1381,6 @@
     <t>08/02/2000 22:39:05</t>
   </si>
   <si>
-    <t>31/10/2017 00:22:42</t>
-  </si>
-  <si>
     <t>22/06/2015 08:13:58</t>
   </si>
   <si>
@@ -1468,9 +1399,6 @@
     <t>29/09/1985 20:12:39</t>
   </si>
   <si>
-    <t>28/03/2014 16:57:44</t>
-  </si>
-  <si>
     <t>25/02/2016 20:51:40</t>
   </si>
   <si>
@@ -1486,9 +1414,6 @@
     <t>08/01/1986 13:59:39</t>
   </si>
   <si>
-    <t>08/03/2018 10:40:30</t>
-  </si>
-  <si>
     <t>19/11/2014 16:20:22</t>
   </si>
   <si>
@@ -1526,9 +1451,6 @@
   </si>
   <si>
     <t>05/02/1992 09:53:13</t>
-  </si>
-  <si>
-    <t>21/12/2010 00:03:53</t>
   </si>
   <si>
     <t>51|40</t>
@@ -2319,7 +2241,7 @@
   <dimension ref="A1:M332"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -2337,7 +2259,7 @@
     <col min="13" max="13" width="12.85546875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1">
+    <row r="1" spans="1:12" s="1" customFormat="1">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2375,7 +2297,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:12">
       <c r="A2" s="5">
         <v>3</v>
       </c>
@@ -2412,9 +2334,8 @@
       <c r="L2" s="8">
         <v>0</v>
       </c>
-      <c r="M2" s="1"/>
-    </row>
-    <row r="3" spans="1:13">
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="5">
         <v>4</v>
       </c>
@@ -2425,7 +2346,7 @@
         <v>18</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>503</v>
+        <v>473</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>20</v>
@@ -2447,9 +2368,8 @@
       </c>
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
-      <c r="M3" s="1"/>
-    </row>
-    <row r="4" spans="1:13">
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="5">
         <v>4</v>
       </c>
@@ -2460,7 +2380,7 @@
         <v>18</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>504</v>
+        <v>474</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>25</v>
@@ -2482,9 +2402,8 @@
       </c>
       <c r="K4" s="6"/>
       <c r="L4" s="6"/>
-      <c r="M4" s="1"/>
-    </row>
-    <row r="5" spans="1:13">
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -2495,7 +2414,7 @@
         <v>29</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>505</v>
+        <v>475</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>20</v>
@@ -2517,9 +2436,8 @@
       </c>
       <c r="K5" s="6"/>
       <c r="L5" s="6"/>
-      <c r="M5" s="1"/>
-    </row>
-    <row r="6" spans="1:13">
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="5">
         <v>2</v>
       </c>
@@ -2530,7 +2448,7 @@
         <v>34</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>506</v>
+        <v>476</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>36</v>
@@ -2550,9 +2468,8 @@
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
       <c r="L6" s="6"/>
-      <c r="M6" s="1"/>
-    </row>
-    <row r="7" spans="1:13">
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="5">
         <v>3</v>
       </c>
@@ -2563,7 +2480,7 @@
         <v>18</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>507</v>
+        <v>477</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>13</v>
@@ -2589,9 +2506,8 @@
       <c r="L7" s="8">
         <v>9</v>
       </c>
-      <c r="M7" s="1"/>
-    </row>
-    <row r="8" spans="1:13">
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="5">
         <v>3</v>
       </c>
@@ -2628,9 +2544,8 @@
       <c r="L8" s="8">
         <v>5</v>
       </c>
-      <c r="M8" s="1"/>
-    </row>
-    <row r="9" spans="1:13">
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="5">
         <v>3</v>
       </c>
@@ -2641,7 +2556,7 @@
         <v>29</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>508</v>
+        <v>478</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>47</v>
@@ -2667,9 +2582,8 @@
       <c r="L9" s="8">
         <v>1</v>
       </c>
-      <c r="M9" s="1"/>
-    </row>
-    <row r="10" spans="1:13">
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="5">
         <v>3</v>
       </c>
@@ -2680,7 +2594,7 @@
         <v>18</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>509</v>
+        <v>479</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>20</v>
@@ -2706,9 +2620,8 @@
       <c r="L10" s="8">
         <v>7</v>
       </c>
-      <c r="M10" s="1"/>
-    </row>
-    <row r="11" spans="1:13">
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="5">
         <v>4</v>
       </c>
@@ -2741,9 +2654,8 @@
       </c>
       <c r="K11" s="6"/>
       <c r="L11" s="6"/>
-      <c r="M11" s="1"/>
-    </row>
-    <row r="12" spans="1:13">
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="5">
         <v>4</v>
       </c>
@@ -2754,7 +2666,7 @@
         <v>29</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>510</v>
+        <v>480</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>42</v>
@@ -2776,9 +2688,8 @@
       </c>
       <c r="K12" s="6"/>
       <c r="L12" s="6"/>
-      <c r="M12" s="1"/>
-    </row>
-    <row r="13" spans="1:13">
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" s="5">
         <v>2</v>
       </c>
@@ -2809,9 +2720,8 @@
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
       <c r="L13" s="6"/>
-      <c r="M13" s="1"/>
-    </row>
-    <row r="14" spans="1:13">
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" s="5">
         <v>4</v>
       </c>
@@ -2822,7 +2732,7 @@
         <v>41</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>511</v>
+        <v>481</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>63</v>
@@ -2844,9 +2754,8 @@
       </c>
       <c r="K14" s="6"/>
       <c r="L14" s="6"/>
-      <c r="M14" s="1"/>
-    </row>
-    <row r="15" spans="1:13">
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" s="5">
         <v>3</v>
       </c>
@@ -2883,9 +2792,8 @@
       <c r="L15" s="8">
         <v>6</v>
       </c>
-      <c r="M15" s="1"/>
-    </row>
-    <row r="16" spans="1:13">
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" s="5">
         <v>3</v>
       </c>
@@ -2896,7 +2804,7 @@
         <v>29</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>512</v>
+        <v>482</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>13</v>
@@ -2922,7 +2830,6 @@
       <c r="L16" s="8">
         <v>0</v>
       </c>
-      <c r="M16" s="1"/>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="5">
@@ -2935,7 +2842,7 @@
         <v>41</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>513</v>
+        <v>483</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>20</v>
@@ -2957,7 +2864,6 @@
       </c>
       <c r="K17" s="6"/>
       <c r="L17" s="6"/>
-      <c r="M17" s="1"/>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="5">
@@ -2992,7 +2898,6 @@
       </c>
       <c r="K18" s="6"/>
       <c r="L18" s="6"/>
-      <c r="M18" s="1"/>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="5">
@@ -3005,7 +2910,7 @@
         <v>18</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>514</v>
+        <v>484</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>20</v>
@@ -3031,7 +2936,6 @@
       <c r="L19" s="8">
         <v>14</v>
       </c>
-      <c r="M19" s="1"/>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="5">
@@ -3044,7 +2948,7 @@
         <v>29</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>515</v>
+        <v>485</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>13</v>
@@ -3070,7 +2974,6 @@
       <c r="L20" s="8">
         <v>44</v>
       </c>
-      <c r="M20" s="1"/>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="5">
@@ -3083,7 +2986,7 @@
         <v>29</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>516</v>
+        <v>486</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>25</v>
@@ -3109,7 +3012,6 @@
       <c r="L21" s="8">
         <v>13</v>
       </c>
-      <c r="M21" s="1"/>
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="5">
@@ -3142,7 +3044,6 @@
       <c r="J22" s="6"/>
       <c r="K22" s="6"/>
       <c r="L22" s="6"/>
-      <c r="M22" s="1"/>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="5">
@@ -3155,7 +3056,7 @@
         <v>34</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>517</v>
+        <v>487</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>47</v>
@@ -3177,7 +3078,6 @@
       </c>
       <c r="K23" s="6"/>
       <c r="L23" s="6"/>
-      <c r="M23" s="1"/>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="5">
@@ -3216,7 +3116,6 @@
       <c r="L24" s="8">
         <v>0</v>
       </c>
-      <c r="M24" s="1"/>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="5">
@@ -3229,7 +3128,7 @@
         <v>29</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>518</v>
+        <v>488</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>42</v>
@@ -3251,7 +3150,6 @@
       </c>
       <c r="K25" s="6"/>
       <c r="L25" s="6"/>
-      <c r="M25" s="1"/>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="5">
@@ -3290,7 +3188,6 @@
       <c r="L26" s="8">
         <v>1</v>
       </c>
-      <c r="M26" s="1"/>
     </row>
     <row r="27" spans="1:13">
       <c r="A27" s="5">
@@ -3303,7 +3200,7 @@
         <v>12</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>519</v>
+        <v>489</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>60</v>
@@ -3323,7 +3220,6 @@
       <c r="J27" s="6"/>
       <c r="K27" s="6"/>
       <c r="L27" s="6"/>
-      <c r="M27" s="1"/>
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="5">
@@ -3336,7 +3232,7 @@
         <v>12</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>520</v>
+        <v>490</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>13</v>
@@ -3362,7 +3258,6 @@
       <c r="L28" s="8">
         <v>0</v>
       </c>
-      <c r="M28" s="1"/>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="5">
@@ -3375,7 +3270,7 @@
         <v>12</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>521</v>
+        <v>491</v>
       </c>
       <c r="E29" s="6" t="s">
         <v>60</v>
@@ -3395,7 +3290,6 @@
       <c r="J29" s="6"/>
       <c r="K29" s="6"/>
       <c r="L29" s="6"/>
-      <c r="M29" s="1"/>
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="5">
@@ -3434,7 +3328,6 @@
       <c r="L30" s="8">
         <v>9</v>
       </c>
-      <c r="M30" s="1"/>
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="5">
@@ -3447,7 +3340,7 @@
         <v>12</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>522</v>
+        <v>492</v>
       </c>
       <c r="E31" s="6" t="s">
         <v>86</v>
@@ -3467,7 +3360,6 @@
       <c r="J31" s="6"/>
       <c r="K31" s="6"/>
       <c r="L31" s="6"/>
-      <c r="M31" s="1"/>
     </row>
     <row r="32" spans="1:13">
       <c r="A32" s="5">
@@ -3519,7 +3411,7 @@
         <v>34</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>523</v>
+        <v>493</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>63</v>
@@ -3700,7 +3592,7 @@
         <v>34</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>524</v>
+        <v>494</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>42</v>
@@ -3735,7 +3627,7 @@
         <v>34</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>525</v>
+        <v>495</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>42</v>
@@ -3770,7 +3662,7 @@
         <v>34</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>526</v>
+        <v>496</v>
       </c>
       <c r="E40" s="4" t="s">
         <v>60</v>
@@ -3803,7 +3695,7 @@
         <v>121</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>527</v>
+        <v>497</v>
       </c>
       <c r="E41" s="6" t="s">
         <v>122</v>
@@ -3811,18 +3703,16 @@
       <c r="F41" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="G41" s="6" t="s">
-        <v>124</v>
+      <c r="G41" s="5">
+        <v>24</v>
       </c>
       <c r="H41" s="5">
-        <v>24</v>
-      </c>
-      <c r="I41" s="5">
         <v>1</v>
       </c>
+      <c r="I41" s="6"/>
       <c r="J41" s="6"/>
       <c r="K41" s="6"/>
-      <c r="L41" s="6"/>
+      <c r="L41" s="1"/>
       <c r="M41" s="1"/>
     </row>
     <row r="42" spans="1:13">
@@ -3842,7 +3732,7 @@
         <v>13</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G42" s="6" t="s">
         <v>26</v>
@@ -3851,7 +3741,7 @@
         <v>16</v>
       </c>
       <c r="I42" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J42" s="7">
         <v>34009.200231481504</v>
@@ -3881,7 +3771,7 @@
         <v>47</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G43" s="6" t="s">
         <v>31</v>
@@ -3890,7 +3780,7 @@
         <v>15</v>
       </c>
       <c r="I43" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J43" s="7" t="s">
         <v>37</v>
@@ -3911,29 +3801,27 @@
         <v>43</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D44" s="10">
         <v>23</v>
       </c>
       <c r="E44" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="F44" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="F44" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="G44" s="6" t="s">
-        <v>133</v>
+      <c r="G44" s="5">
+        <v>42</v>
       </c>
       <c r="H44" s="5">
-        <v>42</v>
-      </c>
-      <c r="I44" s="5">
         <v>34</v>
       </c>
+      <c r="I44" s="6"/>
       <c r="J44" s="6"/>
       <c r="K44" s="6"/>
-      <c r="L44" s="6"/>
+      <c r="L44" s="1"/>
       <c r="M44" s="1"/>
     </row>
     <row r="45" spans="1:13">
@@ -3953,7 +3841,7 @@
         <v>42</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G45" s="6" t="s">
         <v>15</v>
@@ -3962,7 +3850,7 @@
         <v>16</v>
       </c>
       <c r="I45" s="6" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="J45" s="7" t="s">
         <v>84</v>
@@ -4019,7 +3907,7 @@
         <v>29</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>528</v>
+        <v>498</v>
       </c>
       <c r="E47" s="6" t="s">
         <v>60</v>
@@ -4067,7 +3955,7 @@
         <v>15</v>
       </c>
       <c r="I48" s="6" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="J48" s="7" t="s">
         <v>100</v>
@@ -4124,7 +4012,7 @@
         <v>12</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>529</v>
+        <v>499</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>13</v>
@@ -4133,10 +4021,10 @@
         <v>21</v>
       </c>
       <c r="G50" s="6" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H50" s="6" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I50" s="8">
         <v>19</v>
@@ -4174,7 +4062,7 @@
         <v>16</v>
       </c>
       <c r="I51" s="6" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="J51" s="7">
         <v>37326.678807870398</v>
@@ -4198,7 +4086,7 @@
         <v>34</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>530</v>
+        <v>500</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>13</v>
@@ -4207,10 +4095,10 @@
         <v>26</v>
       </c>
       <c r="G52" s="6" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H52" s="6" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I52" s="8">
         <v>36</v>
@@ -4233,13 +4121,13 @@
         <v>29</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>531</v>
+        <v>501</v>
       </c>
       <c r="E53" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G53" s="6" t="s">
         <v>21</v>
@@ -4248,7 +4136,7 @@
         <v>16</v>
       </c>
       <c r="I53" s="6" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="J53" s="7" t="s">
         <v>78</v>
@@ -4272,7 +4160,7 @@
         <v>18</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>532</v>
+        <v>502</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>13</v>
@@ -4281,10 +4169,10 @@
         <v>31</v>
       </c>
       <c r="G54" s="6" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H54" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="I54" s="8">
         <v>31</v>
@@ -4307,7 +4195,7 @@
         <v>29</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>533</v>
+        <v>503</v>
       </c>
       <c r="E55" s="6" t="s">
         <v>60</v>
@@ -4415,10 +4303,10 @@
         <v>15</v>
       </c>
       <c r="G58" s="6" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H58" s="6" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="I58" s="8">
         <v>47</v>
@@ -4504,29 +4392,27 @@
         <v>60</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D61" s="10">
         <v>38</v>
       </c>
       <c r="E61" s="6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F61" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="G61" s="6" t="s">
-        <v>156</v>
+        <v>153</v>
+      </c>
+      <c r="G61" s="5">
+        <v>10</v>
       </c>
       <c r="H61" s="5">
-        <v>10</v>
-      </c>
-      <c r="I61" s="5">
         <v>9</v>
       </c>
+      <c r="I61" s="6"/>
       <c r="J61" s="6"/>
       <c r="K61" s="6"/>
-      <c r="L61" s="6"/>
+      <c r="L61" s="1"/>
       <c r="M61" s="1"/>
     </row>
     <row r="62" spans="1:13">
@@ -4540,7 +4426,7 @@
         <v>12</v>
       </c>
       <c r="D62" s="10" t="s">
-        <v>534</v>
+        <v>504</v>
       </c>
       <c r="E62" s="6" t="s">
         <v>36</v>
@@ -4573,7 +4459,7 @@
         <v>29</v>
       </c>
       <c r="D63" s="10" t="s">
-        <v>535</v>
+        <v>505</v>
       </c>
       <c r="E63" s="3" t="s">
         <v>101</v>
@@ -4582,10 +4468,10 @@
         <v>31</v>
       </c>
       <c r="G63" s="6" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="H63" s="6" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="I63" s="8">
         <v>34</v>
@@ -4608,7 +4494,7 @@
         <v>41</v>
       </c>
       <c r="D64" s="10" t="s">
-        <v>536</v>
+        <v>506</v>
       </c>
       <c r="E64" s="6" t="s">
         <v>36</v>
@@ -4650,10 +4536,10 @@
         <v>15</v>
       </c>
       <c r="G65" s="6" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H65" s="6" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="I65" s="8">
         <v>51</v>
@@ -4718,10 +4604,10 @@
         <v>21</v>
       </c>
       <c r="G67" s="6" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="H67" s="6" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="I67" s="8">
         <v>45</v>
@@ -4741,29 +4627,27 @@
         <v>67</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D68" s="10" t="s">
-        <v>537</v>
+        <v>507</v>
       </c>
       <c r="E68" s="6" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F68" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="G68" s="6" t="s">
-        <v>169</v>
+        <v>165</v>
+      </c>
+      <c r="G68" s="5">
+        <v>37</v>
       </c>
       <c r="H68" s="5">
-        <v>37</v>
-      </c>
-      <c r="I68" s="5">
         <v>13</v>
       </c>
+      <c r="I68" s="6"/>
       <c r="J68" s="6"/>
       <c r="K68" s="6"/>
-      <c r="L68" s="6"/>
+      <c r="L68" s="1"/>
       <c r="M68" s="1"/>
     </row>
     <row r="69" spans="1:13">
@@ -4777,7 +4661,7 @@
         <v>34</v>
       </c>
       <c r="D69" s="10" t="s">
-        <v>538</v>
+        <v>508</v>
       </c>
       <c r="E69" s="6" t="s">
         <v>86</v>
@@ -4810,7 +4694,7 @@
         <v>34</v>
       </c>
       <c r="D70" s="10" t="s">
-        <v>539</v>
+        <v>509</v>
       </c>
       <c r="E70" s="3" t="s">
         <v>42</v>
@@ -4825,7 +4709,7 @@
         <v>16</v>
       </c>
       <c r="I70" s="6" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="J70" s="7" t="s">
         <v>81</v>
@@ -4858,10 +4742,10 @@
         <v>26</v>
       </c>
       <c r="G71" s="6" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="H71" s="6" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="I71" s="8">
         <v>29</v>
@@ -4959,10 +4843,10 @@
         <v>31</v>
       </c>
       <c r="G74" s="6" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="H74" s="6" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="I74" s="8">
         <v>16</v>
@@ -4985,13 +4869,13 @@
         <v>66</v>
       </c>
       <c r="D75" s="10" t="s">
-        <v>540</v>
+        <v>510</v>
       </c>
       <c r="E75" s="3" t="s">
         <v>25</v>
       </c>
       <c r="F75" s="6" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="G75" s="6" t="s">
         <v>31</v>
@@ -5000,7 +4884,7 @@
         <v>15</v>
       </c>
       <c r="I75" s="6" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="J75" s="7" t="s">
         <v>81</v>
@@ -5033,10 +4917,10 @@
         <v>15</v>
       </c>
       <c r="G76" s="6" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="H76" s="6" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="I76" s="8">
         <v>40</v>
@@ -5068,10 +4952,10 @@
         <v>31</v>
       </c>
       <c r="G77" s="6" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="H77" s="6" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="I77" s="8">
         <v>60</v>
@@ -5094,7 +4978,7 @@
         <v>66</v>
       </c>
       <c r="D78" s="10" t="s">
-        <v>541</v>
+        <v>511</v>
       </c>
       <c r="E78" s="6" t="s">
         <v>36</v>
@@ -5160,7 +5044,7 @@
         <v>41</v>
       </c>
       <c r="D80" s="10" t="s">
-        <v>542</v>
+        <v>512</v>
       </c>
       <c r="E80" s="3" t="s">
         <v>63</v>
@@ -5175,7 +5059,7 @@
         <v>44</v>
       </c>
       <c r="I80" s="6" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="J80" s="7" t="s">
         <v>40</v>
@@ -5199,7 +5083,7 @@
         <v>18</v>
       </c>
       <c r="D81" s="10" t="s">
-        <v>543</v>
+        <v>513</v>
       </c>
       <c r="E81" s="3" t="s">
         <v>63</v>
@@ -5208,10 +5092,10 @@
         <v>15</v>
       </c>
       <c r="G81" s="6" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="H81" s="6" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="I81" s="8">
         <v>35</v>
@@ -5243,10 +5127,10 @@
         <v>15</v>
       </c>
       <c r="G82" s="6" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="H82" s="6" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="I82" s="8">
         <v>60</v>
@@ -5278,10 +5162,10 @@
         <v>57</v>
       </c>
       <c r="G83" s="6" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="H83" s="6" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="I83" s="8">
         <v>50</v>
@@ -5301,29 +5185,27 @@
         <v>83</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D84" s="10">
         <v>5</v>
       </c>
       <c r="E84" s="6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F84" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="G84" s="6" t="s">
-        <v>195</v>
+        <v>190</v>
+      </c>
+      <c r="G84" s="5">
+        <v>6</v>
       </c>
       <c r="H84" s="5">
-        <v>6</v>
-      </c>
-      <c r="I84" s="5">
         <v>5</v>
       </c>
+      <c r="I84" s="6"/>
       <c r="J84" s="6"/>
       <c r="K84" s="6"/>
-      <c r="L84" s="6"/>
+      <c r="L84" s="1"/>
       <c r="M84" s="1"/>
     </row>
     <row r="85" spans="1:13">
@@ -5337,13 +5219,13 @@
         <v>18</v>
       </c>
       <c r="D85" s="10" t="s">
-        <v>544</v>
+        <v>514</v>
       </c>
       <c r="E85" s="3" t="s">
         <v>63</v>
       </c>
       <c r="F85" s="6" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="G85" s="6" t="s">
         <v>31</v>
@@ -5352,7 +5234,7 @@
         <v>15</v>
       </c>
       <c r="I85" s="6" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="J85" s="7" t="s">
         <v>40</v>
@@ -5376,13 +5258,13 @@
         <v>12</v>
       </c>
       <c r="D86" s="10" t="s">
-        <v>545</v>
+        <v>515</v>
       </c>
       <c r="E86" s="3" t="s">
         <v>25</v>
       </c>
       <c r="F86" s="6" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="G86" s="6" t="s">
         <v>15</v>
@@ -5391,7 +5273,7 @@
         <v>16</v>
       </c>
       <c r="I86" s="6" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="J86" s="7">
         <v>32001.362777777798</v>
@@ -5412,29 +5294,27 @@
         <v>86</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="D87" s="10" t="s">
-        <v>546</v>
+        <v>516</v>
       </c>
       <c r="E87" s="6" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F87" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="G87" s="6" t="s">
-        <v>201</v>
+        <v>195</v>
+      </c>
+      <c r="G87" s="5">
+        <v>9</v>
       </c>
       <c r="H87" s="5">
-        <v>9</v>
-      </c>
-      <c r="I87" s="5">
         <v>3</v>
       </c>
+      <c r="I87" s="6"/>
       <c r="J87" s="6"/>
       <c r="K87" s="6"/>
-      <c r="L87" s="6"/>
+      <c r="L87" s="1"/>
       <c r="M87" s="1"/>
     </row>
     <row r="88" spans="1:13">
@@ -5445,29 +5325,27 @@
         <v>87</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="D88" s="10" t="s">
-        <v>547</v>
+        <v>517</v>
       </c>
       <c r="E88" s="6" t="s">
         <v>122</v>
       </c>
       <c r="F88" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="G88" s="6" t="s">
-        <v>204</v>
+        <v>197</v>
+      </c>
+      <c r="G88" s="5">
+        <v>6</v>
       </c>
       <c r="H88" s="5">
-        <v>6</v>
-      </c>
-      <c r="I88" s="5">
         <v>0</v>
       </c>
+      <c r="I88" s="6"/>
       <c r="J88" s="6"/>
       <c r="K88" s="6"/>
-      <c r="L88" s="6"/>
+      <c r="L88" s="1"/>
       <c r="M88" s="1"/>
     </row>
     <row r="89" spans="1:13">
@@ -5481,7 +5359,7 @@
         <v>29</v>
       </c>
       <c r="D89" s="10" t="s">
-        <v>548</v>
+        <v>518</v>
       </c>
       <c r="E89" s="3" t="s">
         <v>20</v>
@@ -5490,10 +5368,10 @@
         <v>26</v>
       </c>
       <c r="G89" s="6" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="H89" s="6" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="I89" s="8">
         <v>45</v>
@@ -5549,7 +5427,7 @@
         <v>41</v>
       </c>
       <c r="D91" s="10" t="s">
-        <v>549</v>
+        <v>519</v>
       </c>
       <c r="E91" s="3" t="s">
         <v>101</v>
@@ -5558,10 +5436,10 @@
         <v>15</v>
       </c>
       <c r="G91" s="6" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="H91" s="6" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="I91" s="8">
         <v>39</v>
@@ -5590,7 +5468,7 @@
         <v>104</v>
       </c>
       <c r="F92" s="6" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G92" s="6" t="s">
         <v>70</v>
@@ -5599,7 +5477,7 @@
         <v>15</v>
       </c>
       <c r="I92" s="6" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="J92" s="7" t="s">
         <v>61</v>
@@ -5623,7 +5501,7 @@
         <v>29</v>
       </c>
       <c r="D93" s="10" t="s">
-        <v>550</v>
+        <v>520</v>
       </c>
       <c r="E93" s="6" t="s">
         <v>36</v>
@@ -5665,10 +5543,10 @@
         <v>15</v>
       </c>
       <c r="G94" s="6" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="H94" s="6" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="I94" s="8">
         <v>44</v>
@@ -5700,10 +5578,10 @@
         <v>26</v>
       </c>
       <c r="G95" s="6" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="H95" s="6" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="I95" s="8">
         <v>58</v>
@@ -5735,10 +5613,10 @@
         <v>70</v>
       </c>
       <c r="G96" s="6" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="H96" s="6" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="I96" s="8">
         <v>40</v>
@@ -5770,10 +5648,10 @@
         <v>15</v>
       </c>
       <c r="G97" s="6" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="H97" s="6" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="I97" s="8">
         <v>30</v>
@@ -5793,29 +5671,27 @@
         <v>97</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="D98" s="10" t="s">
-        <v>551</v>
+        <v>521</v>
       </c>
       <c r="E98" s="6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F98" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="G98" s="6" t="s">
-        <v>221</v>
+        <v>213</v>
+      </c>
+      <c r="G98" s="5">
+        <v>33</v>
       </c>
       <c r="H98" s="5">
-        <v>33</v>
-      </c>
-      <c r="I98" s="5">
         <v>11</v>
       </c>
+      <c r="I98" s="6"/>
       <c r="J98" s="6"/>
       <c r="K98" s="6"/>
-      <c r="L98" s="6"/>
+      <c r="L98" s="1"/>
       <c r="M98" s="1"/>
     </row>
     <row r="99" spans="1:13">
@@ -5862,7 +5738,7 @@
         <v>41</v>
       </c>
       <c r="D100" s="10" t="s">
-        <v>552</v>
+        <v>522</v>
       </c>
       <c r="E100" s="3" t="s">
         <v>47</v>
@@ -5871,10 +5747,10 @@
         <v>43</v>
       </c>
       <c r="G100" s="6" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="H100" s="6" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="I100" s="8">
         <v>37</v>
@@ -5897,7 +5773,7 @@
         <v>66</v>
       </c>
       <c r="D101" s="10" t="s">
-        <v>553</v>
+        <v>523</v>
       </c>
       <c r="E101" s="3" t="s">
         <v>63</v>
@@ -5906,10 +5782,10 @@
         <v>21</v>
       </c>
       <c r="G101" s="6" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="H101" s="6" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="I101" s="8">
         <v>34</v>
@@ -5947,7 +5823,7 @@
         <v>16</v>
       </c>
       <c r="I102" s="6" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="J102" s="7" t="s">
         <v>40</v>
@@ -5971,7 +5847,7 @@
         <v>12</v>
       </c>
       <c r="D103" s="10" t="s">
-        <v>554</v>
+        <v>524</v>
       </c>
       <c r="E103" s="3" t="s">
         <v>47</v>
@@ -5980,10 +5856,10 @@
         <v>26</v>
       </c>
       <c r="G103" s="6" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="H103" s="6" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="I103" s="8">
         <v>26</v>
@@ -6021,7 +5897,7 @@
         <v>44</v>
       </c>
       <c r="I104" s="6" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="J104" s="7">
         <v>37326.678807870398</v>
@@ -6054,10 +5930,10 @@
         <v>15</v>
       </c>
       <c r="G105" s="6" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="H105" s="6" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="I105" s="8">
         <v>44</v>
@@ -6080,7 +5956,7 @@
         <v>41</v>
       </c>
       <c r="D106" s="10" t="s">
-        <v>555</v>
+        <v>525</v>
       </c>
       <c r="E106" s="3" t="s">
         <v>42</v>
@@ -6089,10 +5965,10 @@
         <v>31</v>
       </c>
       <c r="G106" s="6" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="H106" s="6" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="I106" s="8">
         <v>55</v>
@@ -6124,10 +6000,10 @@
         <v>21</v>
       </c>
       <c r="G107" s="6" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="H107" s="6" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="I107" s="8">
         <v>52</v>
@@ -6150,7 +6026,7 @@
         <v>12</v>
       </c>
       <c r="D108" s="10" t="s">
-        <v>556</v>
+        <v>526</v>
       </c>
       <c r="E108" s="6" t="s">
         <v>60</v>
@@ -6180,29 +6056,27 @@
         <v>108</v>
       </c>
       <c r="C109" s="6" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="D109" s="10" t="s">
-        <v>557</v>
+        <v>527</v>
       </c>
       <c r="E109" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F109" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="G109" s="6" t="s">
-        <v>240</v>
+        <v>231</v>
+      </c>
+      <c r="G109" s="5">
+        <v>49</v>
       </c>
       <c r="H109" s="5">
-        <v>49</v>
-      </c>
-      <c r="I109" s="5">
         <v>11</v>
       </c>
+      <c r="I109" s="6"/>
       <c r="J109" s="6"/>
       <c r="K109" s="6"/>
-      <c r="L109" s="6"/>
+      <c r="L109" s="1"/>
       <c r="M109" s="1"/>
     </row>
     <row r="110" spans="1:13">
@@ -6222,7 +6096,7 @@
         <v>13</v>
       </c>
       <c r="F110" s="6" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G110" s="6" t="s">
         <v>15</v>
@@ -6231,7 +6105,7 @@
         <v>16</v>
       </c>
       <c r="I110" s="6" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="J110" s="7" t="s">
         <v>100</v>
@@ -6288,7 +6162,7 @@
         <v>41</v>
       </c>
       <c r="D112" s="10" t="s">
-        <v>558</v>
+        <v>528</v>
       </c>
       <c r="E112" s="3" t="s">
         <v>63</v>
@@ -6297,10 +6171,10 @@
         <v>15</v>
       </c>
       <c r="G112" s="6" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="H112" s="6" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="I112" s="8">
         <v>9</v>
@@ -6323,13 +6197,13 @@
         <v>29</v>
       </c>
       <c r="D113" s="10" t="s">
-        <v>559</v>
+        <v>529</v>
       </c>
       <c r="E113" s="3" t="s">
         <v>101</v>
       </c>
       <c r="F113" s="6" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G113" s="6" t="s">
         <v>15</v>
@@ -6338,7 +6212,7 @@
         <v>16</v>
       </c>
       <c r="I113" s="6" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="J113" s="7" t="s">
         <v>81</v>
@@ -6368,7 +6242,7 @@
         <v>101</v>
       </c>
       <c r="F114" s="6" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="G114" s="6" t="s">
         <v>26</v>
@@ -6377,7 +6251,7 @@
         <v>16</v>
       </c>
       <c r="I114" s="6" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="J114" s="7">
         <v>32001.362777777798</v>
@@ -6401,13 +6275,13 @@
         <v>12</v>
       </c>
       <c r="D115" s="10" t="s">
-        <v>560</v>
+        <v>530</v>
       </c>
       <c r="E115" s="3" t="s">
         <v>25</v>
       </c>
       <c r="F115" s="6" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G115" s="6" t="s">
         <v>70</v>
@@ -6416,7 +6290,7 @@
         <v>15</v>
       </c>
       <c r="I115" s="6" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="J115" s="7">
         <v>35167.808796296304</v>
@@ -6440,7 +6314,7 @@
         <v>18</v>
       </c>
       <c r="D116" s="10" t="s">
-        <v>561</v>
+        <v>531</v>
       </c>
       <c r="E116" s="3" t="s">
         <v>47</v>
@@ -6449,10 +6323,10 @@
         <v>31</v>
       </c>
       <c r="G116" s="6" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="H116" s="6" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="I116" s="8">
         <v>18</v>
@@ -6475,7 +6349,7 @@
         <v>18</v>
       </c>
       <c r="D117" s="10" t="s">
-        <v>562</v>
+        <v>532</v>
       </c>
       <c r="E117" s="3" t="s">
         <v>101</v>
@@ -6484,10 +6358,10 @@
         <v>15</v>
       </c>
       <c r="G117" s="6" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="H117" s="6" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="I117" s="8">
         <v>41</v>
@@ -6516,7 +6390,7 @@
         <v>63</v>
       </c>
       <c r="F118" s="6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G118" s="6" t="s">
         <v>43</v>
@@ -6525,7 +6399,7 @@
         <v>15</v>
       </c>
       <c r="I118" s="6" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="J118" s="7">
         <v>32001.362777777798</v>
@@ -6558,10 +6432,10 @@
         <v>26</v>
       </c>
       <c r="G119" s="6" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="H119" s="6" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="I119" s="8">
         <v>51</v>
@@ -6584,7 +6458,7 @@
         <v>34</v>
       </c>
       <c r="D120" s="10" t="s">
-        <v>563</v>
+        <v>533</v>
       </c>
       <c r="E120" s="6" t="s">
         <v>36</v>
@@ -6650,7 +6524,7 @@
         <v>41</v>
       </c>
       <c r="D122" s="10" t="s">
-        <v>564</v>
+        <v>534</v>
       </c>
       <c r="E122" s="3" t="s">
         <v>20</v>
@@ -6665,7 +6539,7 @@
         <v>16</v>
       </c>
       <c r="I122" s="6" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="J122" s="7" t="s">
         <v>81</v>
@@ -6686,29 +6560,27 @@
         <v>122</v>
       </c>
       <c r="C123" s="6" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="D123" s="10" t="s">
-        <v>565</v>
+        <v>535</v>
       </c>
       <c r="E123" s="6" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F123" s="6" t="s">
-        <v>257</v>
-      </c>
-      <c r="G123" s="6" t="s">
-        <v>258</v>
+        <v>248</v>
+      </c>
+      <c r="G123" s="5">
+        <v>41</v>
       </c>
       <c r="H123" s="5">
-        <v>41</v>
-      </c>
-      <c r="I123" s="5">
         <v>28</v>
       </c>
+      <c r="I123" s="6"/>
       <c r="J123" s="6"/>
       <c r="K123" s="6"/>
-      <c r="L123" s="6"/>
+      <c r="L123" s="1"/>
       <c r="M123" s="1"/>
     </row>
     <row r="124" spans="1:13">
@@ -6755,7 +6627,7 @@
         <v>29</v>
       </c>
       <c r="D125" s="10" t="s">
-        <v>566</v>
+        <v>536</v>
       </c>
       <c r="E125" s="3" t="s">
         <v>63</v>
@@ -6764,10 +6636,10 @@
         <v>26</v>
       </c>
       <c r="G125" s="6" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="H125" s="6" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="I125" s="8">
         <v>18</v>
@@ -6799,10 +6671,10 @@
         <v>21</v>
       </c>
       <c r="G126" s="6" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="H126" s="6" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="I126" s="8">
         <v>25</v>
@@ -6825,13 +6697,13 @@
         <v>12</v>
       </c>
       <c r="D127" s="10" t="s">
-        <v>567</v>
+        <v>537</v>
       </c>
       <c r="E127" s="3" t="s">
         <v>47</v>
       </c>
       <c r="F127" s="6" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="G127" s="6" t="s">
         <v>31</v>
@@ -6840,7 +6712,7 @@
         <v>15</v>
       </c>
       <c r="I127" s="6" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="J127" s="7" t="s">
         <v>84</v>
@@ -6861,29 +6733,27 @@
         <v>127</v>
       </c>
       <c r="C128" s="6" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="D128" s="10" t="s">
-        <v>568</v>
+        <v>538</v>
       </c>
       <c r="E128" s="6" t="s">
         <v>122</v>
       </c>
       <c r="F128" s="6" t="s">
-        <v>267</v>
-      </c>
-      <c r="G128" s="6" t="s">
-        <v>268</v>
+        <v>257</v>
+      </c>
+      <c r="G128" s="5">
+        <v>19</v>
       </c>
       <c r="H128" s="5">
-        <v>19</v>
-      </c>
-      <c r="I128" s="5">
         <v>6</v>
       </c>
+      <c r="I128" s="6"/>
       <c r="J128" s="6"/>
       <c r="K128" s="6"/>
-      <c r="L128" s="6"/>
+      <c r="L128" s="1"/>
       <c r="M128" s="1"/>
     </row>
     <row r="129" spans="1:13">
@@ -6897,7 +6767,7 @@
         <v>66</v>
       </c>
       <c r="D129" s="10" t="s">
-        <v>569</v>
+        <v>539</v>
       </c>
       <c r="E129" s="3" t="s">
         <v>20</v>
@@ -6906,10 +6776,10 @@
         <v>15</v>
       </c>
       <c r="G129" s="6" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="H129" s="6" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="I129" s="8">
         <v>56</v>
@@ -6947,7 +6817,7 @@
         <v>16</v>
       </c>
       <c r="I130" s="6" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="J130" s="7" t="s">
         <v>40</v>
@@ -6986,7 +6856,7 @@
         <v>16</v>
       </c>
       <c r="I131" s="6" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="J131" s="7" t="s">
         <v>81</v>
@@ -7010,7 +6880,7 @@
         <v>18</v>
       </c>
       <c r="D132" s="10" t="s">
-        <v>570</v>
+        <v>540</v>
       </c>
       <c r="E132" s="6" t="s">
         <v>60</v>
@@ -7043,7 +6913,7 @@
         <v>12</v>
       </c>
       <c r="D133" s="10" t="s">
-        <v>571</v>
+        <v>541</v>
       </c>
       <c r="E133" s="6" t="s">
         <v>86</v>
@@ -7091,7 +6961,7 @@
         <v>16</v>
       </c>
       <c r="I134" s="6" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="J134" s="7">
         <v>34009.200231481504</v>
@@ -7121,7 +6991,7 @@
         <v>63</v>
       </c>
       <c r="F135" s="6" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G135" s="6" t="s">
         <v>70</v>
@@ -7130,7 +7000,7 @@
         <v>44</v>
       </c>
       <c r="I135" s="6" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="J135" s="7" t="s">
         <v>37</v>
@@ -7154,7 +7024,7 @@
         <v>41</v>
       </c>
       <c r="D136" s="10" t="s">
-        <v>572</v>
+        <v>542</v>
       </c>
       <c r="E136" s="3" t="s">
         <v>101</v>
@@ -7169,7 +7039,7 @@
         <v>15</v>
       </c>
       <c r="I136" s="6" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="J136" s="7">
         <v>32001.362777777798</v>
@@ -7202,7 +7072,7 @@
         <v>16</v>
       </c>
       <c r="G137" s="7" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="H137" s="5">
         <v>57</v>
@@ -7241,7 +7111,7 @@
         <v>15</v>
       </c>
       <c r="I138" s="6" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="J138" s="7">
         <v>35167.808796296304</v>
@@ -7307,10 +7177,10 @@
         <v>26</v>
       </c>
       <c r="G140" s="6" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="H140" s="6" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="I140" s="8">
         <v>28</v>
@@ -7339,7 +7209,7 @@
         <v>20</v>
       </c>
       <c r="F141" s="6" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="G141" s="6" t="s">
         <v>31</v>
@@ -7348,7 +7218,7 @@
         <v>16</v>
       </c>
       <c r="I141" s="6" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="J141" s="7" t="s">
         <v>50</v>
@@ -7372,7 +7242,7 @@
         <v>18</v>
       </c>
       <c r="D142" s="10" t="s">
-        <v>573</v>
+        <v>543</v>
       </c>
       <c r="E142" s="6" t="s">
         <v>60</v>
@@ -7405,7 +7275,7 @@
         <v>12</v>
       </c>
       <c r="D143" s="10" t="s">
-        <v>574</v>
+        <v>544</v>
       </c>
       <c r="E143" s="3" t="s">
         <v>101</v>
@@ -7420,7 +7290,7 @@
         <v>15</v>
       </c>
       <c r="I143" s="6" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="J143" s="7" t="s">
         <v>50</v>
@@ -7486,10 +7356,10 @@
         <v>15</v>
       </c>
       <c r="G145" s="6" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="H145" s="6" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="I145" s="8">
         <v>5</v>
@@ -7518,7 +7388,7 @@
         <v>42</v>
       </c>
       <c r="F146" s="6" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G146" s="6" t="s">
         <v>15</v>
@@ -7527,7 +7397,7 @@
         <v>16</v>
       </c>
       <c r="I146" s="6" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="J146" s="7" t="s">
         <v>78</v>
@@ -7557,7 +7427,7 @@
         <v>47</v>
       </c>
       <c r="F147" s="6" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G147" s="6" t="s">
         <v>57</v>
@@ -7566,7 +7436,7 @@
         <v>16</v>
       </c>
       <c r="I147" s="6" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="J147" s="7" t="s">
         <v>84</v>
@@ -7638,7 +7508,7 @@
         <v>15</v>
       </c>
       <c r="I149" s="6" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="J149" s="7" t="s">
         <v>61</v>
@@ -7662,13 +7532,13 @@
         <v>18</v>
       </c>
       <c r="D150" s="10" t="s">
-        <v>575</v>
+        <v>545</v>
       </c>
       <c r="E150" s="3" t="s">
         <v>25</v>
       </c>
       <c r="F150" s="4" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="G150" s="6" t="s">
         <v>15</v>
@@ -7677,7 +7547,7 @@
         <v>16</v>
       </c>
       <c r="I150" s="6" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="J150" s="7" t="s">
         <v>37</v>
@@ -7731,29 +7601,27 @@
         <v>151</v>
       </c>
       <c r="C152" s="6" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="D152" s="10">
         <v>8</v>
       </c>
       <c r="E152" s="6" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F152" s="6" t="s">
-        <v>292</v>
-      </c>
-      <c r="G152" s="6" t="s">
-        <v>293</v>
+        <v>281</v>
+      </c>
+      <c r="G152" s="5">
+        <v>29</v>
       </c>
       <c r="H152" s="5">
-        <v>29</v>
-      </c>
-      <c r="I152" s="5">
         <v>25</v>
       </c>
+      <c r="I152" s="6"/>
       <c r="J152" s="6"/>
       <c r="K152" s="6"/>
-      <c r="L152" s="6"/>
+      <c r="L152" s="1"/>
       <c r="M152" s="1"/>
     </row>
     <row r="153" spans="1:13">
@@ -7839,7 +7707,7 @@
         <v>13</v>
       </c>
       <c r="F155" s="6" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="G155" s="6" t="s">
         <v>31</v>
@@ -7848,7 +7716,7 @@
         <v>16</v>
       </c>
       <c r="I155" s="6" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="J155" s="7" t="s">
         <v>40</v>
@@ -7872,7 +7740,7 @@
         <v>34</v>
       </c>
       <c r="D156" s="10" t="s">
-        <v>576</v>
+        <v>546</v>
       </c>
       <c r="E156" s="3" t="s">
         <v>63</v>
@@ -7887,7 +7755,7 @@
         <v>15</v>
       </c>
       <c r="I156" s="6" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="J156" s="7" t="s">
         <v>84</v>
@@ -7920,10 +7788,10 @@
         <v>31</v>
       </c>
       <c r="G157" s="6" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="H157" s="6" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="I157" s="8">
         <v>9</v>
@@ -7946,7 +7814,7 @@
         <v>41</v>
       </c>
       <c r="D158" s="10" t="s">
-        <v>577</v>
+        <v>547</v>
       </c>
       <c r="E158" s="3" t="s">
         <v>25</v>
@@ -7961,7 +7829,7 @@
         <v>16</v>
       </c>
       <c r="I158" s="6" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="J158" s="7" t="s">
         <v>61</v>
@@ -8018,7 +7886,7 @@
         <v>12</v>
       </c>
       <c r="D160" s="10" t="s">
-        <v>578</v>
+        <v>548</v>
       </c>
       <c r="E160" s="3" t="s">
         <v>42</v>
@@ -8033,7 +7901,7 @@
         <v>16</v>
       </c>
       <c r="I160" s="6" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="J160" s="7">
         <v>37326.678807870398</v>
@@ -8066,10 +7934,10 @@
         <v>15</v>
       </c>
       <c r="G161" s="6" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="H161" s="6" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="I161" s="8">
         <v>18</v>
@@ -8155,29 +8023,27 @@
         <v>163</v>
       </c>
       <c r="C164" s="6" t="s">
-        <v>302</v>
+        <v>290</v>
       </c>
       <c r="D164" s="10">
         <v>35</v>
       </c>
       <c r="E164" s="6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F164" s="6" t="s">
-        <v>303</v>
-      </c>
-      <c r="G164" s="6" t="s">
-        <v>304</v>
+        <v>291</v>
+      </c>
+      <c r="G164" s="5">
+        <v>4</v>
       </c>
       <c r="H164" s="5">
-        <v>4</v>
-      </c>
-      <c r="I164" s="5">
         <v>0</v>
       </c>
+      <c r="I164" s="6"/>
       <c r="J164" s="6"/>
       <c r="K164" s="6"/>
-      <c r="L164" s="6"/>
+      <c r="L164" s="1"/>
       <c r="M164" s="1"/>
     </row>
     <row r="165" spans="1:13">
@@ -8191,7 +8057,7 @@
         <v>34</v>
       </c>
       <c r="D165" s="10" t="s">
-        <v>579</v>
+        <v>549</v>
       </c>
       <c r="E165" s="6" t="s">
         <v>36</v>
@@ -8224,7 +8090,7 @@
         <v>41</v>
       </c>
       <c r="D166" s="10" t="s">
-        <v>580</v>
+        <v>550</v>
       </c>
       <c r="E166" s="3" t="s">
         <v>101</v>
@@ -8233,10 +8099,10 @@
         <v>26</v>
       </c>
       <c r="G166" s="6" t="s">
-        <v>305</v>
+        <v>292</v>
       </c>
       <c r="H166" s="6" t="s">
-        <v>306</v>
+        <v>293</v>
       </c>
       <c r="I166" s="8">
         <v>30</v>
@@ -8268,10 +8134,10 @@
         <v>31</v>
       </c>
       <c r="G167" s="6" t="s">
-        <v>307</v>
+        <v>294</v>
       </c>
       <c r="H167" s="6" t="s">
-        <v>308</v>
+        <v>295</v>
       </c>
       <c r="I167" s="8">
         <v>22</v>
@@ -8336,10 +8202,10 @@
         <v>15</v>
       </c>
       <c r="G169" s="6" t="s">
-        <v>309</v>
+        <v>296</v>
       </c>
       <c r="H169" s="6" t="s">
-        <v>310</v>
+        <v>297</v>
       </c>
       <c r="I169" s="8">
         <v>40</v>
@@ -8362,13 +8228,13 @@
         <v>34</v>
       </c>
       <c r="D170" s="10" t="s">
-        <v>581</v>
+        <v>551</v>
       </c>
       <c r="E170" s="3" t="s">
         <v>101</v>
       </c>
       <c r="F170" s="6" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="G170" s="6" t="s">
         <v>15</v>
@@ -8377,10 +8243,10 @@
         <v>16</v>
       </c>
       <c r="I170" s="6" t="s">
-        <v>311</v>
+        <v>298</v>
       </c>
       <c r="J170" s="7" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="K170" s="8">
         <v>8</v>
@@ -8401,13 +8267,13 @@
         <v>18</v>
       </c>
       <c r="D171" s="10" t="s">
-        <v>582</v>
+        <v>552</v>
       </c>
       <c r="E171" s="3" t="s">
         <v>47</v>
       </c>
       <c r="F171" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G171" s="6" t="s">
         <v>31</v>
@@ -8416,7 +8282,7 @@
         <v>16</v>
       </c>
       <c r="I171" s="6" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
       <c r="J171" s="7" t="s">
         <v>46</v>
@@ -8440,7 +8306,7 @@
         <v>12</v>
       </c>
       <c r="D172" s="10" t="s">
-        <v>583</v>
+        <v>553</v>
       </c>
       <c r="E172" s="3" t="s">
         <v>47</v>
@@ -8449,10 +8315,10 @@
         <v>15</v>
       </c>
       <c r="G172" s="6" t="s">
-        <v>313</v>
+        <v>300</v>
       </c>
       <c r="H172" s="6" t="s">
-        <v>314</v>
+        <v>301</v>
       </c>
       <c r="I172" s="8">
         <v>27</v>
@@ -8538,29 +8404,27 @@
         <v>174</v>
       </c>
       <c r="C175" s="6" t="s">
-        <v>315</v>
+        <v>302</v>
       </c>
       <c r="D175" s="10">
         <v>13</v>
       </c>
       <c r="E175" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F175" s="6" t="s">
-        <v>316</v>
-      </c>
-      <c r="G175" s="6" t="s">
-        <v>317</v>
+        <v>303</v>
+      </c>
+      <c r="G175" s="5">
+        <v>21</v>
       </c>
       <c r="H175" s="5">
-        <v>21</v>
-      </c>
-      <c r="I175" s="5">
         <v>11</v>
       </c>
+      <c r="I175" s="6"/>
       <c r="J175" s="6"/>
       <c r="K175" s="6"/>
-      <c r="L175" s="6"/>
+      <c r="L175" s="1"/>
       <c r="M175" s="1"/>
     </row>
     <row r="176" spans="1:13">
@@ -8574,7 +8438,7 @@
         <v>66</v>
       </c>
       <c r="D176" s="10" t="s">
-        <v>584</v>
+        <v>554</v>
       </c>
       <c r="E176" s="6" t="s">
         <v>60</v>
@@ -8673,13 +8537,13 @@
         <v>66</v>
       </c>
       <c r="D179" s="10" t="s">
-        <v>585</v>
+        <v>555</v>
       </c>
       <c r="E179" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F179" s="6" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="G179" s="6" t="s">
         <v>70</v>
@@ -8688,7 +8552,7 @@
         <v>44</v>
       </c>
       <c r="I179" s="6" t="s">
-        <v>318</v>
+        <v>304</v>
       </c>
       <c r="J179" s="7" t="s">
         <v>40</v>
@@ -8718,7 +8582,7 @@
         <v>25</v>
       </c>
       <c r="F180" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G180" s="6" t="s">
         <v>31</v>
@@ -8727,7 +8591,7 @@
         <v>15</v>
       </c>
       <c r="I180" s="6" t="s">
-        <v>319</v>
+        <v>305</v>
       </c>
       <c r="J180" s="7" t="s">
         <v>50</v>
@@ -8793,10 +8657,10 @@
         <v>15</v>
       </c>
       <c r="G182" s="6" t="s">
-        <v>320</v>
+        <v>306</v>
       </c>
       <c r="H182" s="6" t="s">
-        <v>321</v>
+        <v>307</v>
       </c>
       <c r="I182" s="8">
         <v>6</v>
@@ -8819,7 +8683,7 @@
         <v>18</v>
       </c>
       <c r="D183" s="10" t="s">
-        <v>586</v>
+        <v>556</v>
       </c>
       <c r="E183" s="3" t="s">
         <v>13</v>
@@ -8828,10 +8692,10 @@
         <v>15</v>
       </c>
       <c r="G183" s="6" t="s">
-        <v>322</v>
+        <v>308</v>
       </c>
       <c r="H183" s="6" t="s">
-        <v>323</v>
+        <v>309</v>
       </c>
       <c r="I183" s="8">
         <v>25</v>
@@ -8854,7 +8718,7 @@
         <v>29</v>
       </c>
       <c r="D184" s="10" t="s">
-        <v>587</v>
+        <v>557</v>
       </c>
       <c r="E184" s="6" t="s">
         <v>86</v>
@@ -8887,13 +8751,13 @@
         <v>18</v>
       </c>
       <c r="D185" s="10" t="s">
-        <v>588</v>
+        <v>558</v>
       </c>
       <c r="E185" s="3" t="s">
         <v>63</v>
       </c>
       <c r="F185" s="6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G185" s="6" t="s">
         <v>31</v>
@@ -8902,7 +8766,7 @@
         <v>16</v>
       </c>
       <c r="I185" s="6" t="s">
-        <v>324</v>
+        <v>310</v>
       </c>
       <c r="J185" s="7">
         <v>35167.808796296304</v>
@@ -8956,29 +8820,27 @@
         <v>186</v>
       </c>
       <c r="C187" s="6" t="s">
-        <v>325</v>
+        <v>311</v>
       </c>
       <c r="D187" s="10" t="s">
-        <v>589</v>
+        <v>559</v>
       </c>
       <c r="E187" s="6" t="s">
         <v>122</v>
       </c>
       <c r="F187" s="6" t="s">
-        <v>326</v>
-      </c>
-      <c r="G187" s="6" t="s">
-        <v>327</v>
+        <v>312</v>
+      </c>
+      <c r="G187" s="5">
+        <v>50</v>
       </c>
       <c r="H187" s="5">
-        <v>50</v>
-      </c>
-      <c r="I187" s="5">
         <v>4</v>
       </c>
+      <c r="I187" s="6"/>
       <c r="J187" s="6"/>
       <c r="K187" s="6"/>
-      <c r="L187" s="6"/>
+      <c r="L187" s="1"/>
       <c r="M187" s="1"/>
     </row>
     <row r="188" spans="1:13">
@@ -9001,10 +8863,10 @@
         <v>31</v>
       </c>
       <c r="G188" s="6" t="s">
-        <v>328</v>
+        <v>313</v>
       </c>
       <c r="H188" s="6" t="s">
-        <v>329</v>
+        <v>314</v>
       </c>
       <c r="I188" s="8">
         <v>52</v>
@@ -9027,7 +8889,7 @@
         <v>12</v>
       </c>
       <c r="D189" s="10" t="s">
-        <v>590</v>
+        <v>560</v>
       </c>
       <c r="E189" s="3" t="s">
         <v>47</v>
@@ -9042,7 +8904,7 @@
         <v>16</v>
       </c>
       <c r="I189" s="6" t="s">
-        <v>330</v>
+        <v>315</v>
       </c>
       <c r="J189" s="7">
         <v>37326.678807870398</v>
@@ -9066,7 +8928,7 @@
         <v>41</v>
       </c>
       <c r="D190" s="10" t="s">
-        <v>591</v>
+        <v>561</v>
       </c>
       <c r="E190" s="6" t="s">
         <v>86</v>
@@ -9099,13 +8961,13 @@
         <v>34</v>
       </c>
       <c r="D191" s="10" t="s">
-        <v>592</v>
+        <v>562</v>
       </c>
       <c r="E191" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F191" s="4" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="G191" s="6" t="s">
         <v>15</v>
@@ -9114,10 +8976,10 @@
         <v>16</v>
       </c>
       <c r="I191" s="6" t="s">
-        <v>331</v>
+        <v>316</v>
       </c>
       <c r="J191" s="7" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="K191" s="8">
         <v>12</v>
@@ -9144,7 +9006,7 @@
         <v>20</v>
       </c>
       <c r="F192" s="6" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="G192" s="6" t="s">
         <v>26</v>
@@ -9153,7 +9015,7 @@
         <v>16</v>
       </c>
       <c r="I192" s="6" t="s">
-        <v>332</v>
+        <v>317</v>
       </c>
       <c r="J192" s="7">
         <v>35167.808796296304</v>
@@ -9282,7 +9144,7 @@
         <v>20</v>
       </c>
       <c r="F196" s="6" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="G196" s="6" t="s">
         <v>15</v>
@@ -9291,7 +9153,7 @@
         <v>16</v>
       </c>
       <c r="I196" s="6" t="s">
-        <v>333</v>
+        <v>318</v>
       </c>
       <c r="J196" s="7">
         <v>34009.200231481504</v>
@@ -9324,10 +9186,10 @@
         <v>15</v>
       </c>
       <c r="G197" s="6" t="s">
-        <v>334</v>
+        <v>319</v>
       </c>
       <c r="H197" s="6" t="s">
-        <v>335</v>
+        <v>320</v>
       </c>
       <c r="I197" s="8">
         <v>12</v>
@@ -9347,7 +9209,7 @@
         <v>197</v>
       </c>
       <c r="C198" s="6" t="s">
-        <v>336</v>
+        <v>321</v>
       </c>
       <c r="D198" s="10">
         <v>14</v>
@@ -9356,20 +9218,18 @@
         <v>122</v>
       </c>
       <c r="F198" s="6" t="s">
-        <v>337</v>
-      </c>
-      <c r="G198" s="6" t="s">
-        <v>338</v>
+        <v>322</v>
+      </c>
+      <c r="G198" s="5">
+        <v>30</v>
       </c>
       <c r="H198" s="5">
-        <v>30</v>
-      </c>
-      <c r="I198" s="5">
         <v>24</v>
       </c>
+      <c r="I198" s="6"/>
       <c r="J198" s="6"/>
       <c r="K198" s="6"/>
-      <c r="L198" s="6"/>
+      <c r="L198" s="1"/>
       <c r="M198" s="1"/>
     </row>
     <row r="199" spans="1:13">
@@ -9392,7 +9252,7 @@
         <v>16</v>
       </c>
       <c r="G199" s="7" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="H199" s="5">
         <v>52</v>
@@ -9455,7 +9315,7 @@
         <v>101</v>
       </c>
       <c r="F201" s="4" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="G201" s="6" t="s">
         <v>31</v>
@@ -9464,7 +9324,7 @@
         <v>16</v>
       </c>
       <c r="I201" s="6" t="s">
-        <v>339</v>
+        <v>323</v>
       </c>
       <c r="J201" s="7">
         <v>32001.362777777798</v>
@@ -9488,7 +9348,7 @@
         <v>12</v>
       </c>
       <c r="D202" s="10" t="s">
-        <v>593</v>
+        <v>563</v>
       </c>
       <c r="E202" s="6" t="s">
         <v>86</v>
@@ -9521,7 +9381,7 @@
         <v>12</v>
       </c>
       <c r="D203" s="10" t="s">
-        <v>594</v>
+        <v>564</v>
       </c>
       <c r="E203" s="3" t="s">
         <v>104</v>
@@ -9530,10 +9390,10 @@
         <v>21</v>
       </c>
       <c r="G203" s="6" t="s">
-        <v>340</v>
+        <v>324</v>
       </c>
       <c r="H203" s="6" t="s">
-        <v>341</v>
+        <v>325</v>
       </c>
       <c r="I203" s="8">
         <v>14</v>
@@ -9556,7 +9416,7 @@
         <v>12</v>
       </c>
       <c r="D204" s="10" t="s">
-        <v>595</v>
+        <v>565</v>
       </c>
       <c r="E204" s="3" t="s">
         <v>42</v>
@@ -9565,10 +9425,10 @@
         <v>31</v>
       </c>
       <c r="G204" s="6" t="s">
-        <v>342</v>
+        <v>326</v>
       </c>
       <c r="H204" s="6" t="s">
-        <v>343</v>
+        <v>327</v>
       </c>
       <c r="I204" s="8">
         <v>41</v>
@@ -9597,7 +9457,7 @@
         <v>13</v>
       </c>
       <c r="F205" s="6" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G205" s="6" t="s">
         <v>70</v>
@@ -9606,7 +9466,7 @@
         <v>44</v>
       </c>
       <c r="I205" s="6" t="s">
-        <v>344</v>
+        <v>328</v>
       </c>
       <c r="J205" s="7" t="s">
         <v>81</v>
@@ -9639,10 +9499,10 @@
         <v>70</v>
       </c>
       <c r="G206" s="6" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="H206" s="6" t="s">
-        <v>346</v>
+        <v>330</v>
       </c>
       <c r="I206" s="8">
         <v>49</v>
@@ -9662,29 +9522,27 @@
         <v>206</v>
       </c>
       <c r="C207" s="6" t="s">
-        <v>347</v>
+        <v>331</v>
       </c>
       <c r="D207" s="10">
         <v>57</v>
       </c>
       <c r="E207" s="6" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F207" s="6" t="s">
-        <v>348</v>
-      </c>
-      <c r="G207" s="6" t="s">
-        <v>349</v>
+        <v>332</v>
+      </c>
+      <c r="G207" s="5">
+        <v>40</v>
       </c>
       <c r="H207" s="5">
-        <v>40</v>
-      </c>
-      <c r="I207" s="5">
         <v>30</v>
       </c>
+      <c r="I207" s="6"/>
       <c r="J207" s="6"/>
       <c r="K207" s="6"/>
-      <c r="L207" s="6"/>
+      <c r="L207" s="1"/>
       <c r="M207" s="1"/>
     </row>
     <row r="208" spans="1:13">
@@ -9698,7 +9556,7 @@
         <v>12</v>
       </c>
       <c r="D208" s="10" t="s">
-        <v>596</v>
+        <v>566</v>
       </c>
       <c r="E208" s="6" t="s">
         <v>36</v>
@@ -9731,7 +9589,7 @@
         <v>34</v>
       </c>
       <c r="D209" s="10" t="s">
-        <v>597</v>
+        <v>567</v>
       </c>
       <c r="E209" s="6" t="s">
         <v>36</v>
@@ -9770,7 +9628,7 @@
         <v>20</v>
       </c>
       <c r="F210" s="6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G210" s="6" t="s">
         <v>31</v>
@@ -9779,7 +9637,7 @@
         <v>16</v>
       </c>
       <c r="I210" s="6" t="s">
-        <v>350</v>
+        <v>333</v>
       </c>
       <c r="J210" s="7" t="s">
         <v>81</v>
@@ -9851,7 +9709,7 @@
         <v>16</v>
       </c>
       <c r="I212" s="6" t="s">
-        <v>351</v>
+        <v>334</v>
       </c>
       <c r="J212" s="7">
         <v>35167.808796296304</v>
@@ -9875,7 +9733,7 @@
         <v>18</v>
       </c>
       <c r="D213" s="10" t="s">
-        <v>598</v>
+        <v>568</v>
       </c>
       <c r="E213" s="3" t="s">
         <v>101</v>
@@ -9884,10 +9742,10 @@
         <v>21</v>
       </c>
       <c r="G213" s="6" t="s">
-        <v>352</v>
+        <v>335</v>
       </c>
       <c r="H213" s="6" t="s">
-        <v>353</v>
+        <v>336</v>
       </c>
       <c r="I213" s="8">
         <v>60</v>
@@ -9910,7 +9768,7 @@
         <v>12</v>
       </c>
       <c r="D214" s="10" t="s">
-        <v>599</v>
+        <v>569</v>
       </c>
       <c r="E214" s="6" t="s">
         <v>36</v>
@@ -9952,10 +9810,10 @@
         <v>15</v>
       </c>
       <c r="G215" s="6" t="s">
-        <v>354</v>
+        <v>337</v>
       </c>
       <c r="H215" s="6" t="s">
-        <v>355</v>
+        <v>338</v>
       </c>
       <c r="I215" s="8">
         <v>57</v>
@@ -9978,7 +9836,7 @@
         <v>34</v>
       </c>
       <c r="D216" s="10" t="s">
-        <v>600</v>
+        <v>570</v>
       </c>
       <c r="E216" s="3" t="s">
         <v>13</v>
@@ -9993,7 +9851,7 @@
         <v>16</v>
       </c>
       <c r="I216" s="6" t="s">
-        <v>356</v>
+        <v>339</v>
       </c>
       <c r="J216" s="7">
         <v>34009.200231481504</v>
@@ -10032,7 +9890,7 @@
         <v>16</v>
       </c>
       <c r="I217" s="6" t="s">
-        <v>357</v>
+        <v>340</v>
       </c>
       <c r="J217" s="7" t="s">
         <v>100</v>
@@ -10089,7 +9947,7 @@
         <v>18</v>
       </c>
       <c r="D219" s="10" t="s">
-        <v>601</v>
+        <v>571</v>
       </c>
       <c r="E219" s="3" t="s">
         <v>20</v>
@@ -10098,10 +9956,10 @@
         <v>31</v>
       </c>
       <c r="G219" s="6" t="s">
-        <v>358</v>
+        <v>341</v>
       </c>
       <c r="H219" s="6" t="s">
-        <v>359</v>
+        <v>342</v>
       </c>
       <c r="I219" s="8">
         <v>52</v>
@@ -10124,7 +9982,7 @@
         <v>18</v>
       </c>
       <c r="D220" s="10" t="s">
-        <v>602</v>
+        <v>572</v>
       </c>
       <c r="E220" s="6" t="s">
         <v>86</v>
@@ -10163,7 +10021,7 @@
         <v>47</v>
       </c>
       <c r="F221" s="6" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="G221" s="6" t="s">
         <v>57</v>
@@ -10172,7 +10030,7 @@
         <v>15</v>
       </c>
       <c r="I221" s="6" t="s">
-        <v>360</v>
+        <v>343</v>
       </c>
       <c r="J221" s="7" t="s">
         <v>46</v>
@@ -10205,10 +10063,10 @@
         <v>43</v>
       </c>
       <c r="G222" s="6" t="s">
-        <v>361</v>
+        <v>344</v>
       </c>
       <c r="H222" s="6" t="s">
-        <v>362</v>
+        <v>345</v>
       </c>
       <c r="I222" s="8">
         <v>36</v>
@@ -10237,7 +10095,7 @@
         <v>63</v>
       </c>
       <c r="F223" s="4" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G223" s="6" t="s">
         <v>26</v>
@@ -10246,7 +10104,7 @@
         <v>16</v>
       </c>
       <c r="I223" s="6" t="s">
-        <v>363</v>
+        <v>346</v>
       </c>
       <c r="J223" s="7" t="s">
         <v>84</v>
@@ -10270,7 +10128,7 @@
         <v>12</v>
       </c>
       <c r="D224" s="10" t="s">
-        <v>603</v>
+        <v>573</v>
       </c>
       <c r="E224" s="3" t="s">
         <v>25</v>
@@ -10279,10 +10137,10 @@
         <v>15</v>
       </c>
       <c r="G224" s="6" t="s">
-        <v>364</v>
+        <v>347</v>
       </c>
       <c r="H224" s="6" t="s">
-        <v>365</v>
+        <v>348</v>
       </c>
       <c r="I224" s="8">
         <v>42</v>
@@ -10314,10 +10172,10 @@
         <v>15</v>
       </c>
       <c r="G225" s="6" t="s">
-        <v>366</v>
+        <v>349</v>
       </c>
       <c r="H225" s="6" t="s">
-        <v>367</v>
+        <v>350</v>
       </c>
       <c r="I225" s="8">
         <v>45</v>
@@ -10349,10 +10207,10 @@
         <v>15</v>
       </c>
       <c r="G226" s="6" t="s">
-        <v>368</v>
+        <v>351</v>
       </c>
       <c r="H226" s="6" t="s">
-        <v>369</v>
+        <v>352</v>
       </c>
       <c r="I226" s="8">
         <v>57</v>
@@ -10384,10 +10242,10 @@
         <v>15</v>
       </c>
       <c r="G227" s="6" t="s">
-        <v>370</v>
+        <v>353</v>
       </c>
       <c r="H227" s="6" t="s">
-        <v>371</v>
+        <v>354</v>
       </c>
       <c r="I227" s="8">
         <v>36</v>
@@ -10419,10 +10277,10 @@
         <v>15</v>
       </c>
       <c r="G228" s="6" t="s">
-        <v>372</v>
+        <v>355</v>
       </c>
       <c r="H228" s="6" t="s">
-        <v>373</v>
+        <v>356</v>
       </c>
       <c r="I228" s="8">
         <v>17</v>
@@ -10445,13 +10303,13 @@
         <v>12</v>
       </c>
       <c r="D229" s="10" t="s">
-        <v>604</v>
+        <v>574</v>
       </c>
       <c r="E229" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F229" s="6" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="G229" s="6" t="s">
         <v>26</v>
@@ -10460,7 +10318,7 @@
         <v>16</v>
       </c>
       <c r="I229" s="6" t="s">
-        <v>374</v>
+        <v>357</v>
       </c>
       <c r="J229" s="7" t="s">
         <v>78</v>
@@ -10493,7 +10351,7 @@
         <v>16</v>
       </c>
       <c r="G230" s="7" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="H230" s="5">
         <v>48</v>
@@ -10532,7 +10390,7 @@
         <v>16</v>
       </c>
       <c r="I231" s="6" t="s">
-        <v>375</v>
+        <v>358</v>
       </c>
       <c r="J231" s="7">
         <v>37326.678807870398</v>
@@ -10604,7 +10462,7 @@
         <v>15</v>
       </c>
       <c r="I233" s="6" t="s">
-        <v>376</v>
+        <v>359</v>
       </c>
       <c r="J233" s="7" t="s">
         <v>100</v>
@@ -10637,7 +10495,7 @@
         <v>16</v>
       </c>
       <c r="G234" s="7" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="H234" s="5">
         <v>56</v>
@@ -10676,10 +10534,10 @@
         <v>16</v>
       </c>
       <c r="I235" s="6" t="s">
-        <v>377</v>
+        <v>360</v>
       </c>
       <c r="J235" s="7" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="K235" s="8">
         <v>2</v>
@@ -10715,7 +10573,7 @@
         <v>16</v>
       </c>
       <c r="I236" s="6" t="s">
-        <v>378</v>
+        <v>361</v>
       </c>
       <c r="J236" s="7" t="s">
         <v>40</v>
@@ -10748,10 +10606,10 @@
         <v>57</v>
       </c>
       <c r="G237" s="6" t="s">
-        <v>379</v>
+        <v>362</v>
       </c>
       <c r="H237" s="6" t="s">
-        <v>380</v>
+        <v>363</v>
       </c>
       <c r="I237" s="8">
         <v>47</v>
@@ -10783,10 +10641,10 @@
         <v>26</v>
       </c>
       <c r="G238" s="6" t="s">
-        <v>381</v>
+        <v>364</v>
       </c>
       <c r="H238" s="6" t="s">
-        <v>382</v>
+        <v>365</v>
       </c>
       <c r="I238" s="8">
         <v>15</v>
@@ -10824,7 +10682,7 @@
         <v>16</v>
       </c>
       <c r="I239" s="6" t="s">
-        <v>383</v>
+        <v>366</v>
       </c>
       <c r="J239" s="7" t="s">
         <v>37</v>
@@ -10848,7 +10706,7 @@
         <v>66</v>
       </c>
       <c r="D240" s="10" t="s">
-        <v>605</v>
+        <v>575</v>
       </c>
       <c r="E240" s="6" t="s">
         <v>86</v>
@@ -10878,29 +10736,27 @@
         <v>240</v>
       </c>
       <c r="C241" s="6" t="s">
-        <v>384</v>
+        <v>367</v>
       </c>
       <c r="D241" s="10" t="s">
-        <v>606</v>
+        <v>576</v>
       </c>
       <c r="E241" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F241" s="6" t="s">
-        <v>385</v>
-      </c>
-      <c r="G241" s="6" t="s">
-        <v>386</v>
+        <v>368</v>
+      </c>
+      <c r="G241" s="5">
+        <v>50</v>
       </c>
       <c r="H241" s="5">
-        <v>50</v>
-      </c>
-      <c r="I241" s="5">
         <v>0</v>
       </c>
+      <c r="I241" s="6"/>
       <c r="J241" s="6"/>
       <c r="K241" s="6"/>
-      <c r="L241" s="6"/>
+      <c r="L241" s="1"/>
       <c r="M241" s="1"/>
     </row>
     <row r="242" spans="1:13">
@@ -10914,7 +10770,7 @@
         <v>12</v>
       </c>
       <c r="D242" s="10" t="s">
-        <v>607</v>
+        <v>577</v>
       </c>
       <c r="E242" s="3" t="s">
         <v>25</v>
@@ -10923,10 +10779,10 @@
         <v>31</v>
       </c>
       <c r="G242" s="6" t="s">
-        <v>387</v>
+        <v>369</v>
       </c>
       <c r="H242" s="6" t="s">
-        <v>388</v>
+        <v>370</v>
       </c>
       <c r="I242" s="8">
         <v>45</v>
@@ -10949,7 +10805,7 @@
         <v>12</v>
       </c>
       <c r="D243" s="10" t="s">
-        <v>608</v>
+        <v>578</v>
       </c>
       <c r="E243" s="4" t="s">
         <v>60</v>
@@ -10958,7 +10814,7 @@
         <v>16</v>
       </c>
       <c r="G243" s="7" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="H243" s="5">
         <v>42</v>
@@ -10988,7 +10844,7 @@
         <v>63</v>
       </c>
       <c r="F244" s="6" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G244" s="6" t="s">
         <v>15</v>
@@ -10997,7 +10853,7 @@
         <v>16</v>
       </c>
       <c r="I244" s="6" t="s">
-        <v>389</v>
+        <v>371</v>
       </c>
       <c r="J244" s="7">
         <v>32001.362777777798</v>
@@ -11021,7 +10877,7 @@
         <v>12</v>
       </c>
       <c r="D245" s="10" t="s">
-        <v>609</v>
+        <v>579</v>
       </c>
       <c r="E245" s="3" t="s">
         <v>20</v>
@@ -11030,10 +10886,10 @@
         <v>31</v>
       </c>
       <c r="G245" s="6" t="s">
-        <v>390</v>
+        <v>372</v>
       </c>
       <c r="H245" s="6" t="s">
-        <v>391</v>
+        <v>373</v>
       </c>
       <c r="I245" s="8">
         <v>5</v>
@@ -11062,7 +10918,7 @@
         <v>47</v>
       </c>
       <c r="F246" s="6" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="G246" s="6" t="s">
         <v>43</v>
@@ -11071,10 +10927,10 @@
         <v>44</v>
       </c>
       <c r="I246" s="6" t="s">
-        <v>392</v>
+        <v>374</v>
       </c>
       <c r="J246" s="7" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="K246" s="8">
         <v>29</v>
@@ -11161,7 +11017,7 @@
         <v>18</v>
       </c>
       <c r="D249" s="10" t="s">
-        <v>610</v>
+        <v>580</v>
       </c>
       <c r="E249" s="6" t="s">
         <v>60</v>
@@ -11236,10 +11092,10 @@
         <v>31</v>
       </c>
       <c r="G251" s="6" t="s">
-        <v>393</v>
+        <v>375</v>
       </c>
       <c r="H251" s="6" t="s">
-        <v>394</v>
+        <v>376</v>
       </c>
       <c r="I251" s="8">
         <v>24</v>
@@ -11271,10 +11127,10 @@
         <v>57</v>
       </c>
       <c r="G252" s="6" t="s">
-        <v>395</v>
+        <v>377</v>
       </c>
       <c r="H252" s="6" t="s">
-        <v>396</v>
+        <v>378</v>
       </c>
       <c r="I252" s="8">
         <v>20</v>
@@ -11294,29 +11150,27 @@
         <v>252</v>
       </c>
       <c r="C253" s="6" t="s">
-        <v>397</v>
+        <v>379</v>
       </c>
       <c r="D253" s="10">
         <v>15</v>
       </c>
       <c r="E253" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F253" s="6" t="s">
-        <v>398</v>
-      </c>
-      <c r="G253" s="6" t="s">
-        <v>399</v>
+        <v>380</v>
+      </c>
+      <c r="G253" s="5">
+        <v>21</v>
       </c>
       <c r="H253" s="5">
-        <v>21</v>
-      </c>
-      <c r="I253" s="5">
         <v>14</v>
       </c>
+      <c r="I253" s="6"/>
       <c r="J253" s="6"/>
       <c r="K253" s="6"/>
-      <c r="L253" s="6"/>
+      <c r="L253" s="1"/>
       <c r="M253" s="1"/>
     </row>
     <row r="254" spans="1:13">
@@ -11336,7 +11190,7 @@
         <v>101</v>
       </c>
       <c r="F254" s="4" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="G254" s="6" t="s">
         <v>21</v>
@@ -11345,7 +11199,7 @@
         <v>16</v>
       </c>
       <c r="I254" s="6" t="s">
-        <v>400</v>
+        <v>381</v>
       </c>
       <c r="J254" s="7" t="s">
         <v>40</v>
@@ -11375,7 +11229,7 @@
         <v>20</v>
       </c>
       <c r="F255" s="6" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="G255" s="6" t="s">
         <v>43</v>
@@ -11384,7 +11238,7 @@
         <v>15</v>
       </c>
       <c r="I255" s="6" t="s">
-        <v>401</v>
+        <v>382</v>
       </c>
       <c r="J255" s="7">
         <v>34009.200231481504</v>
@@ -11417,10 +11271,10 @@
         <v>70</v>
       </c>
       <c r="G256" s="6" t="s">
-        <v>402</v>
+        <v>383</v>
       </c>
       <c r="H256" s="6" t="s">
-        <v>403</v>
+        <v>384</v>
       </c>
       <c r="I256" s="8">
         <v>3</v>
@@ -11443,7 +11297,7 @@
         <v>12</v>
       </c>
       <c r="D257" s="10" t="s">
-        <v>611</v>
+        <v>581</v>
       </c>
       <c r="E257" s="6" t="s">
         <v>36</v>
@@ -11473,29 +11327,27 @@
         <v>257</v>
       </c>
       <c r="C258" s="6" t="s">
-        <v>404</v>
+        <v>385</v>
       </c>
       <c r="D258" s="10">
         <v>22</v>
       </c>
       <c r="E258" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F258" s="6" t="s">
-        <v>405</v>
-      </c>
-      <c r="G258" s="6" t="s">
-        <v>406</v>
+        <v>386</v>
+      </c>
+      <c r="G258" s="5">
+        <v>11</v>
       </c>
       <c r="H258" s="5">
-        <v>11</v>
-      </c>
-      <c r="I258" s="5">
         <v>8</v>
       </c>
+      <c r="I258" s="6"/>
       <c r="J258" s="6"/>
       <c r="K258" s="6"/>
-      <c r="L258" s="6"/>
+      <c r="L258" s="1"/>
       <c r="M258" s="1"/>
     </row>
     <row r="259" spans="1:13">
@@ -11518,10 +11370,10 @@
         <v>15</v>
       </c>
       <c r="G259" s="6" t="s">
-        <v>407</v>
+        <v>387</v>
       </c>
       <c r="H259" s="6" t="s">
-        <v>408</v>
+        <v>388</v>
       </c>
       <c r="I259" s="8">
         <v>12</v>
@@ -11553,10 +11405,10 @@
         <v>31</v>
       </c>
       <c r="G260" s="6" t="s">
-        <v>409</v>
+        <v>389</v>
       </c>
       <c r="H260" s="6" t="s">
-        <v>410</v>
+        <v>390</v>
       </c>
       <c r="I260" s="8">
         <v>26</v>
@@ -11588,10 +11440,10 @@
         <v>15</v>
       </c>
       <c r="G261" s="6" t="s">
-        <v>411</v>
+        <v>391</v>
       </c>
       <c r="H261" s="6" t="s">
-        <v>412</v>
+        <v>392</v>
       </c>
       <c r="I261" s="8">
         <v>45</v>
@@ -11656,10 +11508,10 @@
         <v>15</v>
       </c>
       <c r="G263" s="6" t="s">
-        <v>413</v>
+        <v>393</v>
       </c>
       <c r="H263" s="6" t="s">
-        <v>414</v>
+        <v>394</v>
       </c>
       <c r="I263" s="8">
         <v>17</v>
@@ -11730,7 +11582,7 @@
         <v>15</v>
       </c>
       <c r="I265" s="6" t="s">
-        <v>415</v>
+        <v>395</v>
       </c>
       <c r="J265" s="7">
         <v>37326.678807870398</v>
@@ -11754,13 +11606,13 @@
         <v>12</v>
       </c>
       <c r="D266" s="10" t="s">
-        <v>612</v>
+        <v>582</v>
       </c>
       <c r="E266" s="3" t="s">
         <v>104</v>
       </c>
       <c r="F266" s="6" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G266" s="6" t="s">
         <v>31</v>
@@ -11769,7 +11621,7 @@
         <v>15</v>
       </c>
       <c r="I266" s="6" t="s">
-        <v>416</v>
+        <v>396</v>
       </c>
       <c r="J266" s="7" t="s">
         <v>78</v>
@@ -11823,29 +11675,27 @@
         <v>267</v>
       </c>
       <c r="C268" s="6" t="s">
-        <v>417</v>
+        <v>397</v>
       </c>
       <c r="D268" s="10">
         <v>44</v>
       </c>
       <c r="E268" s="6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F268" s="6" t="s">
-        <v>418</v>
-      </c>
-      <c r="G268" s="6" t="s">
-        <v>419</v>
+        <v>398</v>
+      </c>
+      <c r="G268" s="5">
+        <v>7</v>
       </c>
       <c r="H268" s="5">
-        <v>7</v>
-      </c>
-      <c r="I268" s="5">
         <v>5</v>
       </c>
+      <c r="I268" s="6"/>
       <c r="J268" s="6"/>
       <c r="K268" s="6"/>
-      <c r="L268" s="6"/>
+      <c r="L268" s="1"/>
       <c r="M268" s="1"/>
     </row>
     <row r="269" spans="1:13">
@@ -11859,7 +11709,7 @@
         <v>41</v>
       </c>
       <c r="D269" s="10" t="s">
-        <v>613</v>
+        <v>583</v>
       </c>
       <c r="E269" s="3" t="s">
         <v>101</v>
@@ -11874,7 +11724,7 @@
         <v>16</v>
       </c>
       <c r="I269" s="6" t="s">
-        <v>420</v>
+        <v>399</v>
       </c>
       <c r="J269" s="7" t="s">
         <v>37</v>
@@ -11913,7 +11763,7 @@
         <v>16</v>
       </c>
       <c r="I270" s="6" t="s">
-        <v>421</v>
+        <v>400</v>
       </c>
       <c r="J270" s="7" t="s">
         <v>78</v>
@@ -11937,7 +11787,7 @@
         <v>29</v>
       </c>
       <c r="D271" s="10" t="s">
-        <v>614</v>
+        <v>584</v>
       </c>
       <c r="E271" s="6" t="s">
         <v>86</v>
@@ -11970,13 +11820,13 @@
         <v>18</v>
       </c>
       <c r="D272" s="10" t="s">
-        <v>615</v>
+        <v>585</v>
       </c>
       <c r="E272" s="3" t="s">
         <v>25</v>
       </c>
       <c r="F272" s="4" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G272" s="6" t="s">
         <v>15</v>
@@ -11985,7 +11835,7 @@
         <v>16</v>
       </c>
       <c r="I272" s="6" t="s">
-        <v>422</v>
+        <v>401</v>
       </c>
       <c r="J272" s="7" t="s">
         <v>46</v>
@@ -12009,7 +11859,7 @@
         <v>12</v>
       </c>
       <c r="D273" s="10" t="s">
-        <v>616</v>
+        <v>586</v>
       </c>
       <c r="E273" s="3" t="s">
         <v>101</v>
@@ -12018,10 +11868,10 @@
         <v>15</v>
       </c>
       <c r="G273" s="6" t="s">
-        <v>423</v>
+        <v>402</v>
       </c>
       <c r="H273" s="6" t="s">
-        <v>424</v>
+        <v>403</v>
       </c>
       <c r="I273" s="8">
         <v>27</v>
@@ -12041,29 +11891,27 @@
         <v>273</v>
       </c>
       <c r="C274" s="6" t="s">
-        <v>425</v>
+        <v>404</v>
       </c>
       <c r="D274" s="10" t="s">
-        <v>617</v>
+        <v>587</v>
       </c>
       <c r="E274" s="6" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F274" s="6" t="s">
-        <v>426</v>
-      </c>
-      <c r="G274" s="6" t="s">
-        <v>427</v>
+        <v>405</v>
+      </c>
+      <c r="G274" s="5">
+        <v>6</v>
       </c>
       <c r="H274" s="5">
-        <v>6</v>
-      </c>
-      <c r="I274" s="5">
         <v>1</v>
       </c>
+      <c r="I274" s="6"/>
       <c r="J274" s="6"/>
       <c r="K274" s="6"/>
-      <c r="L274" s="6"/>
+      <c r="L274" s="1"/>
       <c r="M274" s="1"/>
     </row>
     <row r="275" spans="1:13">
@@ -12086,10 +11934,10 @@
         <v>15</v>
       </c>
       <c r="G275" s="6" t="s">
-        <v>428</v>
+        <v>406</v>
       </c>
       <c r="H275" s="6" t="s">
-        <v>429</v>
+        <v>407</v>
       </c>
       <c r="I275" s="8">
         <v>13</v>
@@ -12154,10 +12002,10 @@
         <v>15</v>
       </c>
       <c r="G277" s="6" t="s">
-        <v>430</v>
+        <v>408</v>
       </c>
       <c r="H277" s="6" t="s">
-        <v>431</v>
+        <v>409</v>
       </c>
       <c r="I277" s="8">
         <v>29</v>
@@ -12177,7 +12025,7 @@
         <v>277</v>
       </c>
       <c r="C278" s="6" t="s">
-        <v>432</v>
+        <v>410</v>
       </c>
       <c r="D278" s="10">
         <v>5</v>
@@ -12186,20 +12034,18 @@
         <v>122</v>
       </c>
       <c r="F278" s="6" t="s">
-        <v>433</v>
-      </c>
-      <c r="G278" s="6" t="s">
-        <v>434</v>
+        <v>411</v>
+      </c>
+      <c r="G278" s="5">
+        <v>6</v>
       </c>
       <c r="H278" s="5">
-        <v>6</v>
-      </c>
-      <c r="I278" s="5">
         <v>2</v>
       </c>
+      <c r="I278" s="6"/>
       <c r="J278" s="6"/>
       <c r="K278" s="6"/>
-      <c r="L278" s="6"/>
+      <c r="L278" s="1"/>
       <c r="M278" s="1"/>
     </row>
     <row r="279" spans="1:13">
@@ -12213,7 +12059,7 @@
         <v>41</v>
       </c>
       <c r="D279" s="10" t="s">
-        <v>618</v>
+        <v>588</v>
       </c>
       <c r="E279" s="6" t="s">
         <v>86</v>
@@ -12243,29 +12089,27 @@
         <v>279</v>
       </c>
       <c r="C280" s="6" t="s">
-        <v>435</v>
+        <v>412</v>
       </c>
       <c r="D280" s="10" t="s">
-        <v>619</v>
+        <v>589</v>
       </c>
       <c r="E280" s="6" t="s">
         <v>122</v>
       </c>
       <c r="F280" s="6" t="s">
-        <v>436</v>
-      </c>
-      <c r="G280" s="6" t="s">
-        <v>437</v>
+        <v>413</v>
+      </c>
+      <c r="G280" s="5">
+        <v>37</v>
       </c>
       <c r="H280" s="5">
-        <v>37</v>
-      </c>
-      <c r="I280" s="5">
         <v>28</v>
       </c>
+      <c r="I280" s="6"/>
       <c r="J280" s="6"/>
       <c r="K280" s="6"/>
-      <c r="L280" s="6"/>
+      <c r="L280" s="1"/>
       <c r="M280" s="1"/>
     </row>
     <row r="281" spans="1:13">
@@ -12276,7 +12120,7 @@
         <v>280</v>
       </c>
       <c r="C281" s="6" t="s">
-        <v>438</v>
+        <v>414</v>
       </c>
       <c r="D281" s="10">
         <v>8</v>
@@ -12285,20 +12129,18 @@
         <v>122</v>
       </c>
       <c r="F281" s="6" t="s">
-        <v>439</v>
-      </c>
-      <c r="G281" s="6" t="s">
-        <v>440</v>
+        <v>415</v>
+      </c>
+      <c r="G281" s="5">
+        <v>31</v>
       </c>
       <c r="H281" s="5">
-        <v>31</v>
-      </c>
-      <c r="I281" s="5">
         <v>28</v>
       </c>
+      <c r="I281" s="6"/>
       <c r="J281" s="6"/>
       <c r="K281" s="6"/>
-      <c r="L281" s="6"/>
+      <c r="L281" s="1"/>
       <c r="M281" s="1"/>
     </row>
     <row r="282" spans="1:13">
@@ -12312,13 +12154,13 @@
         <v>34</v>
       </c>
       <c r="D282" s="10" t="s">
-        <v>620</v>
+        <v>590</v>
       </c>
       <c r="E282" s="3" t="s">
         <v>25</v>
       </c>
       <c r="F282" s="6" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G282" s="6" t="s">
         <v>57</v>
@@ -12327,10 +12169,10 @@
         <v>16</v>
       </c>
       <c r="I282" s="6" t="s">
-        <v>441</v>
+        <v>416</v>
       </c>
       <c r="J282" s="7" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="K282" s="8">
         <v>34</v>
@@ -12465,7 +12307,7 @@
         <v>16</v>
       </c>
       <c r="I286" s="6" t="s">
-        <v>442</v>
+        <v>417</v>
       </c>
       <c r="J286" s="7" t="s">
         <v>46</v>
@@ -12504,7 +12346,7 @@
         <v>16</v>
       </c>
       <c r="I287" s="6" t="s">
-        <v>443</v>
+        <v>418</v>
       </c>
       <c r="J287" s="7" t="s">
         <v>61</v>
@@ -12570,10 +12412,10 @@
         <v>15</v>
       </c>
       <c r="G289" s="6" t="s">
-        <v>444</v>
+        <v>419</v>
       </c>
       <c r="H289" s="6" t="s">
-        <v>445</v>
+        <v>420</v>
       </c>
       <c r="I289" s="8">
         <v>56</v>
@@ -12596,7 +12438,7 @@
         <v>18</v>
       </c>
       <c r="D290" s="10" t="s">
-        <v>621</v>
+        <v>591</v>
       </c>
       <c r="E290" s="6" t="s">
         <v>36</v>
@@ -12629,7 +12471,7 @@
         <v>29</v>
       </c>
       <c r="D291" s="10" t="s">
-        <v>622</v>
+        <v>592</v>
       </c>
       <c r="E291" s="4" t="s">
         <v>60</v>
@@ -12668,7 +12510,7 @@
         <v>47</v>
       </c>
       <c r="F292" s="6" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="G292" s="6" t="s">
         <v>21</v>
@@ -12677,7 +12519,7 @@
         <v>15</v>
       </c>
       <c r="I292" s="6" t="s">
-        <v>446</v>
+        <v>421</v>
       </c>
       <c r="J292" s="7" t="s">
         <v>84</v>
@@ -12710,10 +12552,10 @@
         <v>15</v>
       </c>
       <c r="G293" s="6" t="s">
-        <v>447</v>
+        <v>422</v>
       </c>
       <c r="H293" s="6" t="s">
-        <v>448</v>
+        <v>423</v>
       </c>
       <c r="I293" s="8">
         <v>35</v>
@@ -12745,10 +12587,10 @@
         <v>21</v>
       </c>
       <c r="G294" s="6" t="s">
-        <v>449</v>
+        <v>424</v>
       </c>
       <c r="H294" s="6" t="s">
-        <v>450</v>
+        <v>425</v>
       </c>
       <c r="I294" s="8">
         <v>48</v>
@@ -12804,7 +12646,7 @@
         <v>29</v>
       </c>
       <c r="D296" s="10" t="s">
-        <v>623</v>
+        <v>593</v>
       </c>
       <c r="E296" s="3" t="s">
         <v>13</v>
@@ -12813,10 +12655,10 @@
         <v>21</v>
       </c>
       <c r="G296" s="6" t="s">
-        <v>451</v>
+        <v>426</v>
       </c>
       <c r="H296" s="6" t="s">
-        <v>452</v>
+        <v>427</v>
       </c>
       <c r="I296" s="8">
         <v>59</v>
@@ -12848,10 +12690,10 @@
         <v>31</v>
       </c>
       <c r="G297" s="6" t="s">
-        <v>453</v>
+        <v>428</v>
       </c>
       <c r="H297" s="6" t="s">
-        <v>454</v>
+        <v>429</v>
       </c>
       <c r="I297" s="8">
         <v>25</v>
@@ -12874,7 +12716,7 @@
         <v>29</v>
       </c>
       <c r="D298" s="10" t="s">
-        <v>624</v>
+        <v>594</v>
       </c>
       <c r="E298" s="3" t="s">
         <v>25</v>
@@ -12883,10 +12725,10 @@
         <v>31</v>
       </c>
       <c r="G298" s="6" t="s">
-        <v>455</v>
+        <v>430</v>
       </c>
       <c r="H298" s="6" t="s">
-        <v>456</v>
+        <v>431</v>
       </c>
       <c r="I298" s="8">
         <v>16</v>
@@ -12909,7 +12751,7 @@
         <v>29</v>
       </c>
       <c r="D299" s="10" t="s">
-        <v>625</v>
+        <v>595</v>
       </c>
       <c r="E299" s="4" t="s">
         <v>60</v>
@@ -12942,7 +12784,7 @@
         <v>41</v>
       </c>
       <c r="D300" s="10" t="s">
-        <v>626</v>
+        <v>596</v>
       </c>
       <c r="E300" s="4" t="s">
         <v>60</v>
@@ -12981,7 +12823,7 @@
         <v>101</v>
       </c>
       <c r="F301" s="6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G301" s="6" t="s">
         <v>21</v>
@@ -12990,7 +12832,7 @@
         <v>15</v>
       </c>
       <c r="I301" s="6" t="s">
-        <v>457</v>
+        <v>432</v>
       </c>
       <c r="J301" s="7" t="s">
         <v>37</v>
@@ -13020,7 +12862,7 @@
         <v>47</v>
       </c>
       <c r="F302" s="6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G302" s="6" t="s">
         <v>70</v>
@@ -13029,7 +12871,7 @@
         <v>15</v>
       </c>
       <c r="I302" s="6" t="s">
-        <v>458</v>
+        <v>433</v>
       </c>
       <c r="J302" s="7" t="s">
         <v>50</v>
@@ -13053,7 +12895,7 @@
         <v>12</v>
       </c>
       <c r="D303" s="10" t="s">
-        <v>627</v>
+        <v>597</v>
       </c>
       <c r="E303" s="6" t="s">
         <v>36</v>
@@ -13062,7 +12904,7 @@
         <v>16</v>
       </c>
       <c r="G303" s="7" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="H303" s="5">
         <v>53</v>
@@ -13086,13 +12928,13 @@
         <v>41</v>
       </c>
       <c r="D304" s="10" t="s">
-        <v>628</v>
+        <v>598</v>
       </c>
       <c r="E304" s="3" t="s">
         <v>25</v>
       </c>
       <c r="F304" s="4" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="G304" s="6" t="s">
         <v>31</v>
@@ -13101,10 +12943,10 @@
         <v>16</v>
       </c>
       <c r="I304" s="6" t="s">
-        <v>459</v>
+        <v>434</v>
       </c>
       <c r="J304" s="7" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="K304" s="8">
         <v>6</v>
@@ -13122,29 +12964,27 @@
         <v>304</v>
       </c>
       <c r="C305" s="6" t="s">
-        <v>460</v>
+        <v>435</v>
       </c>
       <c r="D305" s="10" t="s">
-        <v>629</v>
+        <v>599</v>
       </c>
       <c r="E305" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F305" s="6" t="s">
-        <v>461</v>
-      </c>
-      <c r="G305" s="6" t="s">
-        <v>462</v>
+        <v>436</v>
+      </c>
+      <c r="G305" s="5">
+        <v>43</v>
       </c>
       <c r="H305" s="5">
-        <v>43</v>
-      </c>
-      <c r="I305" s="5">
         <v>29</v>
       </c>
+      <c r="I305" s="6"/>
       <c r="J305" s="6"/>
       <c r="K305" s="6"/>
-      <c r="L305" s="6"/>
+      <c r="L305" s="1"/>
       <c r="M305" s="1"/>
     </row>
     <row r="306" spans="1:13">
@@ -13206,7 +13046,7 @@
         <v>16</v>
       </c>
       <c r="I307" s="6" t="s">
-        <v>463</v>
+        <v>437</v>
       </c>
       <c r="J307" s="7" t="s">
         <v>78</v>
@@ -13239,10 +13079,10 @@
         <v>57</v>
       </c>
       <c r="G308" s="6" t="s">
-        <v>464</v>
+        <v>438</v>
       </c>
       <c r="H308" s="6" t="s">
-        <v>465</v>
+        <v>439</v>
       </c>
       <c r="I308" s="8">
         <v>22</v>
@@ -13265,7 +13105,7 @@
         <v>12</v>
       </c>
       <c r="D309" s="10" t="s">
-        <v>630</v>
+        <v>600</v>
       </c>
       <c r="E309" s="3" t="s">
         <v>20</v>
@@ -13280,7 +13120,7 @@
         <v>15</v>
       </c>
       <c r="I309" s="6" t="s">
-        <v>466</v>
+        <v>440</v>
       </c>
       <c r="J309" s="7" t="s">
         <v>100</v>
@@ -13304,7 +13144,7 @@
         <v>66</v>
       </c>
       <c r="D310" s="10" t="s">
-        <v>631</v>
+        <v>601</v>
       </c>
       <c r="E310" s="6" t="s">
         <v>86</v>
@@ -13337,7 +13177,7 @@
         <v>18</v>
       </c>
       <c r="D311" s="10" t="s">
-        <v>632</v>
+        <v>602</v>
       </c>
       <c r="E311" s="3" t="s">
         <v>13</v>
@@ -13346,10 +13186,10 @@
         <v>15</v>
       </c>
       <c r="G311" s="6" t="s">
-        <v>467</v>
+        <v>441</v>
       </c>
       <c r="H311" s="6" t="s">
-        <v>468</v>
+        <v>442</v>
       </c>
       <c r="I311" s="8">
         <v>60</v>
@@ -13372,7 +13212,7 @@
         <v>18</v>
       </c>
       <c r="D312" s="10" t="s">
-        <v>633</v>
+        <v>603</v>
       </c>
       <c r="E312" s="3" t="s">
         <v>25</v>
@@ -13381,10 +13221,10 @@
         <v>15</v>
       </c>
       <c r="G312" s="6" t="s">
-        <v>469</v>
+        <v>443</v>
       </c>
       <c r="H312" s="6" t="s">
-        <v>470</v>
+        <v>444</v>
       </c>
       <c r="I312" s="8">
         <v>10</v>
@@ -13416,10 +13256,10 @@
         <v>26</v>
       </c>
       <c r="G313" s="6" t="s">
-        <v>471</v>
+        <v>445</v>
       </c>
       <c r="H313" s="6" t="s">
-        <v>472</v>
+        <v>446</v>
       </c>
       <c r="I313" s="8">
         <v>25</v>
@@ -13439,29 +13279,27 @@
         <v>313</v>
       </c>
       <c r="C314" s="6" t="s">
-        <v>473</v>
+        <v>447</v>
       </c>
       <c r="D314" s="10">
         <v>52</v>
       </c>
       <c r="E314" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F314" s="6" t="s">
-        <v>474</v>
-      </c>
-      <c r="G314" s="6" t="s">
-        <v>475</v>
+        <v>448</v>
+      </c>
+      <c r="G314" s="5">
+        <v>34</v>
       </c>
       <c r="H314" s="5">
-        <v>34</v>
-      </c>
-      <c r="I314" s="5">
         <v>19</v>
       </c>
+      <c r="I314" s="6"/>
       <c r="J314" s="6"/>
       <c r="K314" s="6"/>
-      <c r="L314" s="6"/>
+      <c r="L314" s="1"/>
       <c r="M314" s="1"/>
     </row>
     <row r="315" spans="1:13">
@@ -13484,10 +13322,10 @@
         <v>26</v>
       </c>
       <c r="G315" s="6" t="s">
-        <v>476</v>
+        <v>449</v>
       </c>
       <c r="H315" s="6" t="s">
-        <v>477</v>
+        <v>450</v>
       </c>
       <c r="I315" s="8">
         <v>14</v>
@@ -13510,7 +13348,7 @@
         <v>29</v>
       </c>
       <c r="D316" s="10" t="s">
-        <v>634</v>
+        <v>604</v>
       </c>
       <c r="E316" s="6" t="s">
         <v>86</v>
@@ -13543,7 +13381,7 @@
         <v>66</v>
       </c>
       <c r="D317" s="10" t="s">
-        <v>635</v>
+        <v>605</v>
       </c>
       <c r="E317" s="6" t="s">
         <v>36</v>
@@ -13576,7 +13414,7 @@
         <v>18</v>
       </c>
       <c r="D318" s="10" t="s">
-        <v>636</v>
+        <v>606</v>
       </c>
       <c r="E318" s="3" t="s">
         <v>13</v>
@@ -13591,7 +13429,7 @@
         <v>15</v>
       </c>
       <c r="I318" s="6" t="s">
-        <v>478</v>
+        <v>451</v>
       </c>
       <c r="J318" s="7">
         <v>34009.200231481504</v>
@@ -13615,13 +13453,13 @@
         <v>18</v>
       </c>
       <c r="D319" s="10" t="s">
-        <v>637</v>
+        <v>607</v>
       </c>
       <c r="E319" s="3" t="s">
         <v>101</v>
       </c>
       <c r="F319" s="6" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="G319" s="6" t="s">
         <v>57</v>
@@ -13630,7 +13468,7 @@
         <v>16</v>
       </c>
       <c r="I319" s="6" t="s">
-        <v>479</v>
+        <v>452</v>
       </c>
       <c r="J319" s="7" t="s">
         <v>81</v>
@@ -13651,29 +13489,27 @@
         <v>319</v>
       </c>
       <c r="C320" s="6" t="s">
-        <v>480</v>
+        <v>453</v>
       </c>
       <c r="D320" s="10" t="s">
-        <v>638</v>
+        <v>608</v>
       </c>
       <c r="E320" s="6" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F320" s="6" t="s">
-        <v>481</v>
-      </c>
-      <c r="G320" s="6" t="s">
-        <v>482</v>
+        <v>454</v>
+      </c>
+      <c r="G320" s="5">
+        <v>45</v>
       </c>
       <c r="H320" s="5">
-        <v>45</v>
-      </c>
-      <c r="I320" s="5">
         <v>31</v>
       </c>
+      <c r="I320" s="6"/>
       <c r="J320" s="6"/>
       <c r="K320" s="6"/>
-      <c r="L320" s="6"/>
+      <c r="L320" s="1"/>
       <c r="M320" s="1"/>
     </row>
     <row r="321" spans="1:13">
@@ -13696,10 +13532,10 @@
         <v>15</v>
       </c>
       <c r="G321" s="6" t="s">
-        <v>483</v>
+        <v>455</v>
       </c>
       <c r="H321" s="6" t="s">
-        <v>484</v>
+        <v>456</v>
       </c>
       <c r="I321" s="8">
         <v>48</v>
@@ -13722,13 +13558,13 @@
         <v>12</v>
       </c>
       <c r="D322" s="10" t="s">
-        <v>639</v>
+        <v>609</v>
       </c>
       <c r="E322" s="3" t="s">
         <v>63</v>
       </c>
       <c r="F322" s="6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G322" s="6" t="s">
         <v>15</v>
@@ -13737,7 +13573,7 @@
         <v>16</v>
       </c>
       <c r="I322" s="6" t="s">
-        <v>485</v>
+        <v>457</v>
       </c>
       <c r="J322" s="7" t="s">
         <v>37</v>
@@ -13758,29 +13594,27 @@
         <v>322</v>
       </c>
       <c r="C323" s="6" t="s">
-        <v>486</v>
+        <v>458</v>
       </c>
       <c r="D323" s="10" t="s">
-        <v>640</v>
+        <v>610</v>
       </c>
       <c r="E323" s="6" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F323" s="6" t="s">
-        <v>487</v>
-      </c>
-      <c r="G323" s="6" t="s">
-        <v>488</v>
+        <v>459</v>
+      </c>
+      <c r="G323" s="5">
+        <v>35</v>
       </c>
       <c r="H323" s="5">
-        <v>35</v>
-      </c>
-      <c r="I323" s="5">
         <v>1</v>
       </c>
+      <c r="I323" s="6"/>
       <c r="J323" s="6"/>
       <c r="K323" s="6"/>
-      <c r="L323" s="6"/>
+      <c r="L323" s="1"/>
       <c r="M323" s="1"/>
     </row>
     <row r="324" spans="1:13">
@@ -13803,10 +13637,10 @@
         <v>15</v>
       </c>
       <c r="G324" s="6" t="s">
-        <v>489</v>
+        <v>460</v>
       </c>
       <c r="H324" s="6" t="s">
-        <v>490</v>
+        <v>461</v>
       </c>
       <c r="I324" s="8">
         <v>16</v>
@@ -13835,7 +13669,7 @@
         <v>63</v>
       </c>
       <c r="F325" s="6" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="G325" s="6" t="s">
         <v>26</v>
@@ -13844,7 +13678,7 @@
         <v>16</v>
       </c>
       <c r="I325" s="6" t="s">
-        <v>491</v>
+        <v>462</v>
       </c>
       <c r="J325" s="7" t="s">
         <v>61</v>
@@ -13868,7 +13702,7 @@
         <v>12</v>
       </c>
       <c r="D326" s="10" t="s">
-        <v>641</v>
+        <v>611</v>
       </c>
       <c r="E326" s="3" t="s">
         <v>20</v>
@@ -13877,10 +13711,10 @@
         <v>15</v>
       </c>
       <c r="G326" s="6" t="s">
-        <v>492</v>
+        <v>463</v>
       </c>
       <c r="H326" s="6" t="s">
-        <v>493</v>
+        <v>464</v>
       </c>
       <c r="I326" s="8">
         <v>27</v>
@@ -13912,10 +13746,10 @@
         <v>15</v>
       </c>
       <c r="G327" s="6" t="s">
-        <v>494</v>
+        <v>465</v>
       </c>
       <c r="H327" s="6" t="s">
-        <v>495</v>
+        <v>466</v>
       </c>
       <c r="I327" s="8">
         <v>50</v>
@@ -13944,7 +13778,7 @@
         <v>47</v>
       </c>
       <c r="F328" s="4" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="G328" s="6" t="s">
         <v>26</v>
@@ -13953,7 +13787,7 @@
         <v>16</v>
       </c>
       <c r="I328" s="6" t="s">
-        <v>496</v>
+        <v>467</v>
       </c>
       <c r="J328" s="7" t="s">
         <v>50</v>
@@ -13977,7 +13811,7 @@
         <v>12</v>
       </c>
       <c r="D329" s="10" t="s">
-        <v>642</v>
+        <v>612</v>
       </c>
       <c r="E329" s="3" t="s">
         <v>63</v>
@@ -13992,7 +13826,7 @@
         <v>16</v>
       </c>
       <c r="I329" s="6" t="s">
-        <v>497</v>
+        <v>468</v>
       </c>
       <c r="J329" s="7" t="s">
         <v>78</v>
@@ -14025,10 +13859,10 @@
         <v>31</v>
       </c>
       <c r="G330" s="6" t="s">
-        <v>498</v>
+        <v>469</v>
       </c>
       <c r="H330" s="6" t="s">
-        <v>499</v>
+        <v>470</v>
       </c>
       <c r="I330" s="8">
         <v>44</v>
@@ -14051,7 +13885,7 @@
         <v>41</v>
       </c>
       <c r="D331" s="10" t="s">
-        <v>643</v>
+        <v>613</v>
       </c>
       <c r="E331" s="6" t="s">
         <v>86</v>
@@ -14081,7 +13915,7 @@
         <v>331</v>
       </c>
       <c r="C332" s="6" t="s">
-        <v>500</v>
+        <v>471</v>
       </c>
       <c r="D332" s="10">
         <v>23</v>
@@ -14090,25 +13924,23 @@
         <v>122</v>
       </c>
       <c r="F332" s="6" t="s">
-        <v>501</v>
-      </c>
-      <c r="G332" s="6" t="s">
-        <v>502</v>
+        <v>472</v>
+      </c>
+      <c r="G332" s="5">
+        <v>5</v>
       </c>
       <c r="H332" s="5">
-        <v>5</v>
-      </c>
-      <c r="I332" s="5">
         <v>0</v>
       </c>
+      <c r="I332" s="6"/>
       <c r="J332" s="6"/>
       <c r="K332" s="6"/>
-      <c r="L332" s="6"/>
+      <c r="L332" s="1"/>
       <c r="M332" s="1"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M332">
-    <sortCondition ref="M2"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L332">
+    <sortCondition ref="B2:B332"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
